--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -2653,36 +2653,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2702,6 +2672,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3008,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,27 +3033,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3168,10 +3168,10 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="64" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3206,7 +3206,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3214,8 +3214,8 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="60"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3248,16 +3248,16 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="57"/>
+      <c r="U5" s="72"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="64" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3292,7 +3292,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3300,8 +3300,8 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -3334,16 +3334,16 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="72"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3378,7 +3378,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="57" t="s">
+      <c r="U8" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3386,8 +3386,8 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="60"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
@@ -3420,16 +3420,16 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="72"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="64" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3464,7 +3464,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="57" t="s">
+      <c r="U10" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3472,8 +3472,8 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3506,14 +3506,14 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="72"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
@@ -3546,16 +3546,16 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="57"/>
+      <c r="U12" s="72"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="64" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3590,7 +3590,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="57" t="s">
+      <c r="U13" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3598,8 +3598,8 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3632,14 +3632,14 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="72"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3672,14 +3672,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="72"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3712,14 +3712,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="57"/>
+      <c r="U16" s="72"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3752,14 +3752,14 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="72"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
@@ -3792,14 +3792,14 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="57"/>
+      <c r="U18" s="72"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3832,14 +3832,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="57"/>
+      <c r="U19" s="72"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3872,14 +3872,14 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="57"/>
+      <c r="U20" s="72"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3912,14 +3912,14 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="57"/>
+      <c r="U21" s="72"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
@@ -3952,14 +3952,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="57"/>
+      <c r="U22" s="72"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="57"/>
+      <c r="U23" s="72"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -4044,10 +4044,10 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4082,7 +4082,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="72" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4090,8 +4090,8 @@
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
@@ -4124,14 +4124,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="57"/>
+      <c r="U26" s="72"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
@@ -4164,14 +4164,14 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="57"/>
+      <c r="U27" s="72"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4204,14 +4204,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="57"/>
+      <c r="U28" s="72"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
@@ -4244,16 +4244,16 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="57"/>
+      <c r="U29" s="72"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="64" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -4288,7 +4288,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="57" t="s">
+      <c r="U30" s="72" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4296,8 +4296,8 @@
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4330,14 +4330,14 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="57"/>
+      <c r="U31" s="72"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4370,14 +4370,14 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="57"/>
+      <c r="U32" s="72"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4410,14 +4410,14 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="57"/>
+      <c r="U33" s="72"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>44</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="64" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4452,7 +4452,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="57" t="s">
+      <c r="U34" s="72" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="60"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4494,16 +4494,16 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="57"/>
+      <c r="U35" s="72"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="64" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4538,7 +4538,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="57" t="s">
+      <c r="U36" s="72" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4546,8 +4546,8 @@
       <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="57"/>
+      <c r="U37" s="72"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
@@ -4678,10 +4678,10 @@
       <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="69" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4716,7 +4716,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="57" t="s">
+      <c r="U40" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4724,8 +4724,8 @@
       <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
@@ -4758,14 +4758,14 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="57"/>
+      <c r="U41" s="72"/>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>35</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
@@ -4798,14 +4798,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="57"/>
+      <c r="U42" s="72"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>36</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4838,14 +4838,14 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="57"/>
+      <c r="U43" s="72"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>37</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
@@ -4878,14 +4878,14 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="57"/>
+      <c r="U44" s="72"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
@@ -4918,14 +4918,14 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="57"/>
+      <c r="U45" s="72"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
@@ -4958,14 +4958,14 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="57"/>
+      <c r="U46" s="72"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>40</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
@@ -4998,14 +4998,14 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="57"/>
+      <c r="U47" s="72"/>
     </row>
     <row r="48" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>47</v>
       </c>
       <c r="C48" s="36"/>
-      <c r="D48" s="66"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="57"/>
+      <c r="U48" s="72"/>
     </row>
     <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -5095,7 +5095,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="65" t="s">
         <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -5130,7 +5130,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="58" t="s">
+      <c r="U50" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="62"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
@@ -5172,14 +5172,14 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="57"/>
+      <c r="U51" s="72"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="62"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5212,14 +5212,14 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="57"/>
+      <c r="U52" s="72"/>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="62"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5252,14 +5252,14 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="57"/>
+      <c r="U53" s="72"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="62"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="2" t="s">
         <v>107</v>
       </c>
@@ -5292,14 +5292,14 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="57"/>
+      <c r="U54" s="72"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="62"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="2" t="s">
         <v>114</v>
       </c>
@@ -5332,14 +5332,14 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="57"/>
+      <c r="U55" s="72"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="62"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="2" t="s">
         <v>115</v>
       </c>
@@ -5372,14 +5372,14 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="57"/>
+      <c r="U56" s="72"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="62"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="2" t="s">
         <v>116</v>
       </c>
@@ -5412,14 +5412,14 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="57"/>
+      <c r="U57" s="72"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="62"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="2" t="s">
         <v>118</v>
       </c>
@@ -5452,14 +5452,14 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="57"/>
+      <c r="U58" s="72"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="62"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="2" t="s">
         <v>119</v>
       </c>
@@ -5492,14 +5492,14 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="57"/>
+      <c r="U59" s="72"/>
     </row>
     <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <v>58</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="65" t="s">
         <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -5534,7 +5534,7 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="58" t="s">
+      <c r="U60" s="73" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="62"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="2" t="s">
         <v>120</v>
       </c>
@@ -5576,14 +5576,14 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="57"/>
+      <c r="U61" s="72"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>60</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="62"/>
+      <c r="D62" s="65"/>
       <c r="E62" s="2" t="s">
         <v>105</v>
       </c>
@@ -5616,14 +5616,14 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="57"/>
+      <c r="U62" s="72"/>
     </row>
     <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="62"/>
+      <c r="D63" s="65"/>
       <c r="E63" s="2" t="s">
         <v>121</v>
       </c>
@@ -5656,14 +5656,14 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="57"/>
+      <c r="U63" s="72"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="62"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="2" t="s">
         <v>122</v>
       </c>
@@ -5696,14 +5696,14 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="57"/>
+      <c r="U64" s="72"/>
     </row>
     <row r="65" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <v>63</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="62"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="2" t="s">
         <v>123</v>
       </c>
@@ -5736,14 +5736,14 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="57"/>
+      <c r="U65" s="72"/>
     </row>
     <row r="66" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>64</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="62"/>
+      <c r="D66" s="65"/>
       <c r="E66" s="2" t="s">
         <v>124</v>
       </c>
@@ -5776,14 +5776,14 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="57"/>
+      <c r="U66" s="72"/>
     </row>
     <row r="67" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <v>65</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="62"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="2" t="s">
         <v>117</v>
       </c>
@@ -5816,14 +5816,14 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="57"/>
+      <c r="U67" s="72"/>
     </row>
     <row r="68" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="62"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="2" t="s">
         <v>125</v>
       </c>
@@ -5856,14 +5856,14 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="57"/>
+      <c r="U68" s="72"/>
     </row>
     <row r="69" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="62"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="2" t="s">
         <v>126</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="57"/>
+      <c r="U69" s="72"/>
     </row>
     <row r="70" spans="2:21" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="27">
@@ -6229,7 +6229,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="33"/>
-      <c r="D77" s="64" t="s">
+      <c r="D77" s="68" t="s">
         <v>159</v>
       </c>
       <c r="E77" s="20" t="s">
@@ -6270,7 +6270,7 @@
       <c r="T77" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U77" s="58" t="s">
+      <c r="U77" s="73" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="33"/>
-      <c r="D78" s="64"/>
+      <c r="D78" s="68"/>
       <c r="E78" s="20" t="s">
         <v>146</v>
       </c>
@@ -6318,14 +6318,14 @@
       <c r="T78" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U78" s="58"/>
+      <c r="U78" s="73"/>
     </row>
     <row r="79" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
       <c r="C79" s="33"/>
-      <c r="D79" s="64"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="20" t="s">
         <v>147</v>
       </c>
@@ -6364,14 +6364,14 @@
       <c r="T79" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U79" s="58"/>
+      <c r="U79" s="73"/>
     </row>
     <row r="80" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
       <c r="C80" s="33"/>
-      <c r="D80" s="64"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="20" t="s">
         <v>148</v>
       </c>
@@ -6410,14 +6410,14 @@
       <c r="T80" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U80" s="58"/>
+      <c r="U80" s="73"/>
     </row>
     <row r="81" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="64"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="20" t="s">
         <v>149</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="T81" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U81" s="58"/>
+      <c r="U81" s="73"/>
     </row>
     <row r="82" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
@@ -6699,47 +6699,69 @@
       </c>
     </row>
     <row r="87" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="67">
+      <c r="B87" s="57">
         <v>85</v>
       </c>
-      <c r="C87" s="68"/>
-      <c r="D87" s="69" t="s">
+      <c r="C87" s="58"/>
+      <c r="D87" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="70">
-        <v>0</v>
-      </c>
-      <c r="G87" s="71"/>
-      <c r="H87" s="70">
-        <v>0</v>
-      </c>
-      <c r="I87" s="71"/>
-      <c r="J87" s="72" t="s">
+      <c r="F87" s="60">
+        <v>0</v>
+      </c>
+      <c r="G87" s="61"/>
+      <c r="H87" s="60">
+        <v>0</v>
+      </c>
+      <c r="I87" s="61"/>
+      <c r="J87" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="K87" s="72" t="s">
+      <c r="K87" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="L87" s="72" t="s">
+      <c r="L87" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="73" t="s">
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="63" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U40:U48"/>
+    <mergeCell ref="U50:U59"/>
+    <mergeCell ref="U60:U69"/>
+    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="U13:U23"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="U30:U33"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D13:D23"/>
     <mergeCell ref="D50:D59"/>
     <mergeCell ref="C30:C33"/>
@@ -6754,28 +6776,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D60:D69"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="U40:U48"/>
-    <mergeCell ref="U50:U59"/>
-    <mergeCell ref="U60:U69"/>
-    <mergeCell ref="U77:U81"/>
-    <mergeCell ref="U13:U23"/>
-    <mergeCell ref="U25:U29"/>
-    <mergeCell ref="U30:U33"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Airsafe LED灯具配置参数汇总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="187">
   <si>
     <t>IA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1279,6 +1279,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>TOIL-08-L-LED-Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>LED</t>
     </r>
@@ -1289,7 +1293,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>滑行道交叉口灯</t>
+      <t>中间等待位置灯</t>
     </r>
     <r>
       <rPr>
@@ -1315,12 +1319,64 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 6mm)
-LED Taxiway Intersections Light (8-inch 6mm)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOIL-08-L-LED-Y</t>
+LED Intermediate Holding Position Light (8-inch 6mm)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPLMS-08-S-LED-Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-GG-1P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-GY-1P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-YY-1P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-YY-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-YB-1P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-GB-1P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-S-LED-GY-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-S-LED-YB-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-S-LED-GB-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-GG-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-GY-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-YB-2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLMS-08-C-LED-GB-2P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1330,15 +1386,17 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间等待位置灯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道中线灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1347,6 +1405,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -1356,69 +1415,14 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 6mm)
-LED Intermediate Holding Position Light (8-inch 6mm)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPLMS-08-S-LED-Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-GG-1P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-GY-1P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-YY-1P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-YY-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-YB-1P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-GB-1P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-S-LED-GY-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-S-LED-YB-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-S-LED-GB-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-GG-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-GY-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-YB-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCLMS-08-C-LED-GB-2P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>, 6mm)
+LED Taxiway Centerline Light (8-inch, 6mm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1460,24 +1464,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>, 6mm)
-LED Taxiway Centerline Light (8-inch, 6mm)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道中线灯</t>
+      <t>, 6mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -1486,61 +1483,58 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve">2P)
+LED Taxiway Centerline Light (8-inch, 6mm,2P)    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式停止排灯（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>, 6mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">2P)
-LED Taxiway Centerline Light (8-inch, 6mm,2P)    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式停止排灯（</t>
+      <t xml:space="preserve"> 6mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
     </r>
     <r>
       <rPr>
@@ -1548,55 +1542,160 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>LED In-pavement Taxiway Stop Bar Light (8-inch 6mm)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break_val1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break_val2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIVOLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED立式进近中线灯
+LED Elevated Approach Centerline Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL-AP-LED-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带开路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL-SR-LED-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBL-RE-LED-YC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBL-RE-LED-CY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBL-RE-LED-CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBL-RE-LED-CR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBL-RE-LED-RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL-TH-LED-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL-THW-LED-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL-ED-LED-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL-SB-LED-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0或1</t>
+  </si>
+  <si>
+    <t>0或1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式进近横排灯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 6mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
+      <t>LED Elevated Approach Crossbar Light</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式进近侧边灯
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>LED In-pavement Taxiway Stop Bar Light (8-inch 6mm)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+      <t>LED Elevated Approach Side Row Light</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1606,530 +1705,443 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式滑行道边灯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式跑道入口翼排灯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>LED Elevated Runway Threshold Wing-bar Light</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式跑道边灯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>LED Elevated Runway Edge Light</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式跑道入口灯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED Elevated Runway Threshold Light</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式跑道末端灯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED Elevated Runway End Light</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">立式停止排灯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED Elevated Taxiway Stop Bar Light</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双路跑中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双路跑中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高光强警戒灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路滑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双路滑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立式跑道灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立式跑道灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASMG-08-LED-Y-M</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>均可</t>
+  </si>
+  <si>
+    <t>8寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASMS-08-LED-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带开路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路滑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">航空器停机位操作引导灯（8英寸 6mm）                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED Aircraft stand manoeuvring guidance lights (8-inch 6mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">航空器停机位操作引导停止灯（8英寸 6mm）                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED Aircraft stand manoeuvring guidance stop lights (8-inch 6mm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8寸跑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>均可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式滑行道边灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve"> 6mm)
 LED In-pavement Taxiway Edge Light (8-inch 6mm)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>break_val1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>break_val2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIVOLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMSSET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IIC_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED立式进近中线灯
-LED Elevated Approach Centerline Light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-AP-LED-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不带开路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-SR-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-YC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-CY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-CR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-RC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-TH-LED-G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-THW-LED-G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-ED-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-SB-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0或1</t>
-  </si>
-  <si>
-    <t>0或1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>LED</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式进近横排灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道交叉口灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>LED Elevated Approach Crossbar Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式进近侧边灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>(8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>LED Elevated Approach Side Row Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道入口翼排灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway Threshold Wing-bar Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道边灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway Edge Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道入口灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway Threshold Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道末端灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway End Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式停止排灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Taxiway Stop Bar Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱动类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双路跑中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双路跑中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高光强警戒灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单路滑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双路滑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立式跑道灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立式跑道灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASMG-08-LED-Y-M</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>均可</t>
-  </si>
-  <si>
-    <t>8寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASMS-08-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不带开路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单路滑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">航空器停机位操作引导灯（8英寸 6mm）                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Aircraft stand manoeuvring guidance lights (8-inch 6mm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">航空器停机位操作引导停止灯（8英寸 6mm）                              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Aircraft stand manoeuvring guidance stop lights (8-inch 6mm)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t xml:space="preserve"> 6mm)
+LED Taxiway Intersections Light (8-inch 6mm)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2569,19 +2581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2704,6 +2703,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2714,6 +2724,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3006,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U87"/>
+  <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,32 +3041,32 @@
     <col min="18" max="18" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.75" style="41" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.75" style="36" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3100,22 +3113,22 @@
         <v>85</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" s="42" t="s">
-        <v>164</v>
+      <c r="U2" s="37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,18 +3173,18 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="40" t="s">
-        <v>165</v>
+      <c r="U3" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3206,16 +3219,16 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="72" t="s">
-        <v>165</v>
+      <c r="U4" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3248,16 +3261,16 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="72"/>
+      <c r="U5" s="67"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="59" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3292,16 +3305,16 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="72" t="s">
-        <v>165</v>
+      <c r="U6" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -3334,16 +3347,16 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="67"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3378,16 +3391,16 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="72" t="s">
-        <v>165</v>
+      <c r="U8" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
@@ -3420,16 +3433,16 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="67"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="59" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3464,16 +3477,16 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="72" t="s">
-        <v>165</v>
+      <c r="U10" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3506,14 +3519,14 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
@@ -3546,16 +3559,16 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="72"/>
+      <c r="U12" s="67"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3590,16 +3603,16 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="72" t="s">
-        <v>165</v>
+      <c r="U13" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3632,14 +3645,14 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="67"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3672,14 +3685,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="67"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="64"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3712,14 +3725,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="67"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3752,14 +3765,14 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="72"/>
+      <c r="U17" s="67"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
@@ -3792,14 +3805,14 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="72"/>
+      <c r="U18" s="67"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="64"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3832,14 +3845,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="72"/>
+      <c r="U19" s="67"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="64"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3872,14 +3885,14 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="72"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="64"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3912,14 +3925,14 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="72"/>
+      <c r="U21" s="67"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
@@ -3952,14 +3965,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="72"/>
+      <c r="U22" s="67"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
@@ -3992,7 +4005,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="72"/>
+      <c r="U23" s="67"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -4036,18 +4049,18 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="40" t="s">
-        <v>165</v>
+      <c r="U24" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4082,16 +4095,16 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="72" t="s">
-        <v>166</v>
+      <c r="U25" s="67" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
@@ -4124,14 +4137,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="72"/>
+      <c r="U26" s="67"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
@@ -4164,14 +4177,14 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="72"/>
+      <c r="U27" s="67"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="64"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4204,14 +4217,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="72"/>
+      <c r="U28" s="67"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="64"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
@@ -4244,16 +4257,16 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="72"/>
+      <c r="U29" s="67"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -4288,16 +4301,16 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="72" t="s">
-        <v>167</v>
+      <c r="U30" s="67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4330,14 +4343,14 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="72"/>
+      <c r="U31" s="67"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4370,14 +4383,14 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="72"/>
+      <c r="U32" s="67"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4410,14 +4423,14 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="72"/>
+      <c r="U33" s="67"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>44</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4452,8 +4465,8 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="72" t="s">
-        <v>166</v>
+      <c r="U34" s="67" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,7 +4474,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="64"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4494,16 +4507,16 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="72"/>
+      <c r="U35" s="67"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="59" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4538,16 +4551,16 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="72" t="s">
-        <v>167</v>
+      <c r="U36" s="67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
@@ -4580,7 +4593,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="72"/>
+      <c r="U37" s="67"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
@@ -4624,8 +4637,8 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="40" t="s">
-        <v>167</v>
+      <c r="U38" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4670,18 +4683,18 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
-      <c r="U39" s="40" t="s">
-        <v>167</v>
+      <c r="U39" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="64" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4716,16 +4729,16 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="72" t="s">
-        <v>165</v>
+      <c r="U40" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="70"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
@@ -4758,14 +4771,14 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="72"/>
+      <c r="U41" s="67"/>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>35</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="70"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
@@ -4798,14 +4811,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="72"/>
+      <c r="U42" s="67"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>36</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="70"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4838,14 +4851,14 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="72"/>
+      <c r="U43" s="67"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>37</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="70"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
@@ -4878,14 +4891,14 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="72"/>
+      <c r="U44" s="67"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="70"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
@@ -4918,14 +4931,14 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="72"/>
+      <c r="U45" s="67"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="70"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
@@ -4958,14 +4971,14 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="72"/>
+      <c r="U46" s="67"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>40</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="70"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
@@ -4998,14 +5011,14 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="72"/>
+      <c r="U47" s="67"/>
     </row>
     <row r="48" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>47</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="70"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
@@ -5038,7 +5051,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="72"/>
+      <c r="U48" s="67"/>
     </row>
     <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -5070,7 +5083,7 @@
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>90</v>
@@ -5086,8 +5099,8 @@
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="39" t="s">
-        <v>168</v>
+      <c r="U49" s="34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5095,8 +5108,8 @@
         <v>48</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="65" t="s">
-        <v>127</v>
+      <c r="D50" s="60" t="s">
+        <v>126</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>101</v>
@@ -5130,8 +5143,8 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="73" t="s">
-        <v>169</v>
+      <c r="U50" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5139,7 +5152,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="65"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
@@ -5172,14 +5185,14 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="72"/>
+      <c r="U51" s="67"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="65"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5212,14 +5225,14 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="72"/>
+      <c r="U52" s="67"/>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="65"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5252,14 +5265,14 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="72"/>
+      <c r="U53" s="67"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="65"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="2" t="s">
         <v>107</v>
       </c>
@@ -5292,16 +5305,16 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="72"/>
+      <c r="U54" s="67"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="65"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
@@ -5332,16 +5345,16 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="72"/>
+      <c r="U55" s="67"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="65"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -5372,16 +5385,16 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="72"/>
+      <c r="U56" s="67"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="65"/>
+      <c r="D57" s="60"/>
       <c r="E57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -5412,16 +5425,16 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="72"/>
+      <c r="U57" s="67"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="65"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
@@ -5452,16 +5465,16 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="72"/>
+      <c r="U58" s="67"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="65"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
@@ -5492,15 +5505,15 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="72"/>
+      <c r="U59" s="67"/>
     </row>
     <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <v>58</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="65" t="s">
-        <v>128</v>
+      <c r="D60" s="60" t="s">
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>102</v>
@@ -5534,8 +5547,8 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="73" t="s">
-        <v>170</v>
+      <c r="U60" s="68" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,9 +5556,9 @@
         <v>59</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="65"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="20">
         <v>0</v>
@@ -5576,14 +5589,14 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="72"/>
+      <c r="U61" s="67"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>60</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="65"/>
+      <c r="D62" s="60"/>
       <c r="E62" s="2" t="s">
         <v>105</v>
       </c>
@@ -5616,16 +5629,16 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="72"/>
+      <c r="U62" s="67"/>
     </row>
     <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="65"/>
+      <c r="D63" s="60"/>
       <c r="E63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" s="20">
         <v>0</v>
@@ -5640,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K63" s="19" t="s">
         <v>74</v>
@@ -5656,16 +5669,16 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="72"/>
+      <c r="U63" s="67"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="65"/>
+      <c r="D64" s="60"/>
       <c r="E64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="20">
         <v>0</v>
@@ -5680,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>74</v>
@@ -5696,16 +5709,16 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="72"/>
-    </row>
-    <row r="65" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U64" s="67"/>
+    </row>
+    <row r="65" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <v>63</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="65"/>
+      <c r="D65" s="60"/>
       <c r="E65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="20">
         <v>0</v>
@@ -5736,16 +5749,16 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="72"/>
-    </row>
-    <row r="66" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U65" s="67"/>
+    </row>
+    <row r="66" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>64</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="65"/>
+      <c r="D66" s="60"/>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="20">
         <v>0</v>
@@ -5776,16 +5789,16 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="72"/>
-    </row>
-    <row r="67" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U66" s="67"/>
+    </row>
+    <row r="67" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <v>65</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="65"/>
+      <c r="D67" s="60"/>
       <c r="E67" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" s="20">
         <v>0</v>
@@ -5816,16 +5829,16 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="72"/>
-    </row>
-    <row r="68" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U67" s="67"/>
+    </row>
+    <row r="68" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="65"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="20">
         <v>0</v>
@@ -5840,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>74</v>
@@ -5856,16 +5869,16 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="72"/>
-    </row>
-    <row r="69" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U68" s="67"/>
+    </row>
+    <row r="69" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="65"/>
+      <c r="D69" s="60"/>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F69" s="20">
         <v>0</v>
@@ -5896,21 +5909,21 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="72"/>
-    </row>
-    <row r="70" spans="2:21" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="27">
+      <c r="U69" s="67"/>
+    </row>
+    <row r="70" spans="2:22" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="69">
         <v>68</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -5921,34 +5934,35 @@
       <c r="I70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K70" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M70" s="70"/>
+      <c r="N70" s="70"/>
+      <c r="O70" s="70"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="V70" s="72"/>
+    </row>
+    <row r="71" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
         <v>69</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>109</v>
@@ -5966,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L71" s="19" t="s">
         <v>81</v>
@@ -5982,21 +5996,21 @@
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U71" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>70</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F72" s="20">
         <v>0</v>
       </c>
@@ -6010,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72" s="19" t="s">
         <v>75</v>
@@ -6026,716 +6040,716 @@
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
-      <c r="U72" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
+      <c r="U72" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="69">
         <v>71</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="20">
-        <v>0</v>
-      </c>
-      <c r="G73" s="20">
-        <v>0</v>
-      </c>
-      <c r="H73" s="20">
-        <v>0</v>
-      </c>
-      <c r="I73" s="20">
-        <v>0</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L73" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M73" s="70"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="70"/>
+      <c r="T73" s="70"/>
+      <c r="U73" s="71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>72</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="37" t="s">
-        <v>139</v>
+      <c r="C74" s="28"/>
+      <c r="D74" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="E74" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="20">
+        <v>0</v>
+      </c>
+      <c r="G74" s="29"/>
+      <c r="H74" s="20">
+        <v>0</v>
+      </c>
+      <c r="I74" s="29"/>
+      <c r="J74" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F74" s="20">
-        <v>0</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="20">
-        <v>0</v>
-      </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="19" t="s">
+      <c r="L74" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K74" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L74" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="46">
-        <v>0</v>
-      </c>
-      <c r="R74" s="46">
-        <v>0</v>
-      </c>
-      <c r="S74" s="46">
-        <v>0</v>
-      </c>
-      <c r="T74" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="U74" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="41">
+        <v>0</v>
+      </c>
+      <c r="R74" s="41">
+        <v>0</v>
+      </c>
+      <c r="S74" s="41">
+        <v>0</v>
+      </c>
+      <c r="T74" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="U74" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
         <v>73</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="38" t="s">
-        <v>156</v>
+      <c r="C75" s="28"/>
+      <c r="D75" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="E75" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="20">
+        <v>0</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="20">
+        <v>0</v>
+      </c>
+      <c r="I75" s="29"/>
+      <c r="J75" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K75" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F75" s="20">
-        <v>0</v>
-      </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="20">
-        <v>0</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="19" t="s">
+      <c r="L75" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K75" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="46">
-        <v>0</v>
-      </c>
-      <c r="R75" s="46">
-        <v>0</v>
-      </c>
-      <c r="S75" s="46">
-        <v>0</v>
-      </c>
-      <c r="T75" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="U75" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="41">
+        <v>0</v>
+      </c>
+      <c r="R75" s="41">
+        <v>0</v>
+      </c>
+      <c r="S75" s="41">
+        <v>0</v>
+      </c>
+      <c r="T75" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="U75" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9">
         <v>74</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="38" t="s">
-        <v>157</v>
+      <c r="C76" s="28"/>
+      <c r="D76" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F76" s="20">
         <v>0</v>
       </c>
-      <c r="G76" s="34"/>
+      <c r="G76" s="29"/>
       <c r="H76" s="20">
         <v>0</v>
       </c>
-      <c r="I76" s="34"/>
+      <c r="I76" s="29"/>
       <c r="J76" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K76" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="46">
-        <v>0</v>
-      </c>
-      <c r="R76" s="46">
-        <v>0</v>
-      </c>
-      <c r="S76" s="46">
-        <v>0</v>
-      </c>
-      <c r="T76" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U76" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="41">
+        <v>0</v>
+      </c>
+      <c r="R76" s="41">
+        <v>0</v>
+      </c>
+      <c r="S76" s="41">
+        <v>0</v>
+      </c>
+      <c r="T76" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U76" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
         <v>75</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="68" t="s">
-        <v>159</v>
+      <c r="C77" s="28"/>
+      <c r="D77" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" s="20">
         <v>0</v>
       </c>
-      <c r="G77" s="34"/>
+      <c r="G77" s="29"/>
       <c r="H77" s="20">
         <v>0</v>
       </c>
-      <c r="I77" s="34"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L77" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K77" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="46">
-        <v>0</v>
-      </c>
-      <c r="R77" s="46">
-        <v>0</v>
-      </c>
-      <c r="S77" s="46">
-        <v>0</v>
-      </c>
-      <c r="T77" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U77" s="73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="41">
+        <v>0</v>
+      </c>
+      <c r="R77" s="41">
+        <v>0</v>
+      </c>
+      <c r="S77" s="41">
+        <v>0</v>
+      </c>
+      <c r="T77" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U77" s="68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9">
         <v>76</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="68"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F78" s="20">
         <v>0</v>
       </c>
-      <c r="G78" s="34"/>
+      <c r="G78" s="29"/>
       <c r="H78" s="20">
         <v>0</v>
       </c>
-      <c r="I78" s="34"/>
+      <c r="I78" s="29"/>
       <c r="J78" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L78" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K78" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="46">
-        <v>0</v>
-      </c>
-      <c r="R78" s="46">
-        <v>0</v>
-      </c>
-      <c r="S78" s="46">
-        <v>0</v>
-      </c>
-      <c r="T78" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U78" s="73"/>
-    </row>
-    <row r="79" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="41">
+        <v>0</v>
+      </c>
+      <c r="R78" s="41">
+        <v>0</v>
+      </c>
+      <c r="S78" s="41">
+        <v>0</v>
+      </c>
+      <c r="T78" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U78" s="68"/>
+    </row>
+    <row r="79" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="68"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F79" s="20">
         <v>0</v>
       </c>
-      <c r="G79" s="34"/>
+      <c r="G79" s="29"/>
       <c r="H79" s="20">
         <v>0</v>
       </c>
-      <c r="I79" s="34"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K79" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L79" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="46">
-        <v>0</v>
-      </c>
-      <c r="R79" s="46">
-        <v>0</v>
-      </c>
-      <c r="S79" s="46">
-        <v>0</v>
-      </c>
-      <c r="T79" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U79" s="73"/>
-    </row>
-    <row r="80" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="41">
+        <v>0</v>
+      </c>
+      <c r="R79" s="41">
+        <v>0</v>
+      </c>
+      <c r="S79" s="41">
+        <v>0</v>
+      </c>
+      <c r="T79" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U79" s="68"/>
+    </row>
+    <row r="80" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="68"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F80" s="20">
         <v>0</v>
       </c>
-      <c r="G80" s="34"/>
+      <c r="G80" s="29"/>
       <c r="H80" s="20">
         <v>0</v>
       </c>
-      <c r="I80" s="34"/>
+      <c r="I80" s="29"/>
       <c r="J80" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L80" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K80" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L80" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="46">
-        <v>0</v>
-      </c>
-      <c r="R80" s="46">
-        <v>0</v>
-      </c>
-      <c r="S80" s="46">
-        <v>0</v>
-      </c>
-      <c r="T80" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U80" s="73"/>
-    </row>
-    <row r="81" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="41">
+        <v>0</v>
+      </c>
+      <c r="R80" s="41">
+        <v>0</v>
+      </c>
+      <c r="S80" s="41">
+        <v>0</v>
+      </c>
+      <c r="T80" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U80" s="68"/>
+    </row>
+    <row r="81" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="68"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F81" s="20">
         <v>0</v>
       </c>
-      <c r="G81" s="34"/>
+      <c r="G81" s="29"/>
       <c r="H81" s="20">
         <v>0</v>
       </c>
-      <c r="I81" s="34"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L81" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K81" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L81" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="46">
-        <v>0</v>
-      </c>
-      <c r="R81" s="46">
-        <v>0</v>
-      </c>
-      <c r="S81" s="46">
-        <v>0</v>
-      </c>
-      <c r="T81" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U81" s="73"/>
-    </row>
-    <row r="82" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="41">
+        <v>0</v>
+      </c>
+      <c r="R81" s="41">
+        <v>0</v>
+      </c>
+      <c r="S81" s="41">
+        <v>0</v>
+      </c>
+      <c r="T81" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U81" s="68"/>
+    </row>
+    <row r="82" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>80</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="38" t="s">
-        <v>160</v>
+      <c r="C82" s="28"/>
+      <c r="D82" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F82" s="20">
         <v>0</v>
       </c>
-      <c r="G82" s="34"/>
+      <c r="G82" s="29"/>
       <c r="H82" s="20">
         <v>0</v>
       </c>
-      <c r="I82" s="34"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L82" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K82" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="46">
-        <v>0</v>
-      </c>
-      <c r="R82" s="46">
-        <v>0</v>
-      </c>
-      <c r="S82" s="46">
-        <v>0</v>
-      </c>
-      <c r="T82" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U82" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="41">
+        <v>0</v>
+      </c>
+      <c r="R82" s="41">
+        <v>0</v>
+      </c>
+      <c r="S82" s="41">
+        <v>0</v>
+      </c>
+      <c r="T82" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U82" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>81</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="38" t="s">
-        <v>158</v>
+      <c r="C83" s="28"/>
+      <c r="D83" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F83" s="20">
         <v>0</v>
       </c>
-      <c r="G83" s="34"/>
+      <c r="G83" s="29"/>
       <c r="H83" s="20">
         <v>0</v>
       </c>
-      <c r="I83" s="34"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L83" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K83" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="46">
-        <v>0</v>
-      </c>
-      <c r="R83" s="46">
-        <v>0</v>
-      </c>
-      <c r="S83" s="46">
-        <v>0</v>
-      </c>
-      <c r="T83" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U83" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="41">
+        <v>0</v>
+      </c>
+      <c r="R83" s="41">
+        <v>0</v>
+      </c>
+      <c r="S83" s="41">
+        <v>0</v>
+      </c>
+      <c r="T83" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U83" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
         <v>82</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="38" t="s">
-        <v>161</v>
+      <c r="C84" s="28"/>
+      <c r="D84" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="E84" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" s="20">
+        <v>0</v>
+      </c>
+      <c r="G84" s="29"/>
+      <c r="H84" s="20">
+        <v>0</v>
+      </c>
+      <c r="I84" s="29"/>
+      <c r="J84" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L84" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="41">
+        <v>0</v>
+      </c>
+      <c r="R84" s="41">
+        <v>0</v>
+      </c>
+      <c r="S84" s="41">
+        <v>0</v>
+      </c>
+      <c r="T84" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="F84" s="20">
-        <v>0</v>
-      </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="20">
-        <v>0</v>
-      </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="19" t="s">
+      <c r="U84" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="38">
+        <v>83</v>
+      </c>
+      <c r="C85" s="39"/>
+      <c r="D85" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" s="43">
+        <v>0</v>
+      </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="43">
+        <v>0</v>
+      </c>
+      <c r="I85" s="44"/>
+      <c r="J85" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K85" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="L85" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="K84" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="46">
-        <v>0</v>
-      </c>
-      <c r="R84" s="46">
-        <v>0</v>
-      </c>
-      <c r="S84" s="46">
-        <v>0</v>
-      </c>
-      <c r="T84" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U84" s="39" t="s">
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="48">
+        <v>0</v>
+      </c>
+      <c r="R85" s="48">
+        <v>0</v>
+      </c>
+      <c r="S85" s="48">
+        <v>0</v>
+      </c>
+      <c r="T85" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="U85" s="47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="38">
+        <v>84</v>
+      </c>
+      <c r="C86" s="49"/>
+      <c r="D86" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="43">
-        <v>83</v>
-      </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" s="48">
-        <v>0</v>
-      </c>
-      <c r="G85" s="49"/>
-      <c r="H85" s="48">
-        <v>0</v>
-      </c>
-      <c r="I85" s="49"/>
-      <c r="J85" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="K85" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="L85" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="53">
-        <v>0</v>
-      </c>
-      <c r="R85" s="53">
-        <v>0</v>
-      </c>
-      <c r="S85" s="53">
-        <v>0</v>
-      </c>
-      <c r="T85" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="U85" s="52" t="s">
+      <c r="F86" s="43">
+        <v>0.76</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="43">
+        <v>0</v>
+      </c>
+      <c r="I86" s="50"/>
+      <c r="J86" s="45" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="43">
-        <v>84</v>
-      </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E86" s="48" t="s">
+      <c r="K86" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="L86" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="F86" s="48">
-        <v>0.76</v>
-      </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="48">
-        <v>0</v>
-      </c>
-      <c r="I86" s="55"/>
-      <c r="J86" s="50" t="s">
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="K86" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="L86" s="50" t="s">
+    </row>
+    <row r="87" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="52">
+        <v>85</v>
+      </c>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="55"/>
-      <c r="U86" s="56" t="s">
+      <c r="F87" s="55">
+        <v>0</v>
+      </c>
+      <c r="G87" s="56"/>
+      <c r="H87" s="55">
+        <v>0</v>
+      </c>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="87" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="57">
-        <v>85</v>
-      </c>
-      <c r="C87" s="58"/>
-      <c r="D87" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="60" t="s">
+      <c r="K87" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="60">
-        <v>0</v>
-      </c>
-      <c r="G87" s="61"/>
-      <c r="H87" s="60">
-        <v>0</v>
-      </c>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62" t="s">
+      <c r="L87" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="K87" s="62" t="s">
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="58" t="s">
         <v>179</v>
-      </c>
-      <c r="L87" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="61"/>
-      <c r="S87" s="61"/>
-      <c r="T87" s="61"/>
-      <c r="U87" s="63" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6777,7 +6791,7 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D60:D69"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -2050,10 +2050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8寸跑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2142,6 +2138,10 @@
 LED Taxiway Intersections Light (8-inch 6mm)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2673,14 +2673,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2694,26 +2714,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3021,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="F59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,10 +3181,10 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="67" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3219,7 +3219,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="64" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3227,8 +3227,8 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3261,16 +3261,16 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="67"/>
+      <c r="U5" s="64"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="67" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3305,7 +3305,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="64" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3313,8 +3313,8 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -3347,16 +3347,16 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3391,7 +3391,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="67" t="s">
+      <c r="U8" s="64" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3399,8 +3399,8 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
@@ -3433,16 +3433,16 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="67" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3477,7 +3477,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="67" t="s">
+      <c r="U10" s="64" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3485,8 +3485,8 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3519,14 +3519,14 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
@@ -3559,16 +3559,16 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="67"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="67" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3603,7 +3603,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="67" t="s">
+      <c r="U13" s="64" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3611,8 +3611,8 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3645,14 +3645,14 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="64"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3685,14 +3685,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="64"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3725,14 +3725,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="64"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3765,14 +3765,14 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
@@ -3805,14 +3805,14 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="67"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3845,14 +3845,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="67"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3885,14 +3885,14 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="67"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3925,14 +3925,14 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="67"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
@@ -3965,14 +3965,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="67"/>
+      <c r="U22" s="64"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="67"/>
+      <c r="U23" s="64"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -4057,10 +4057,10 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="67" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4095,7 +4095,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="67" t="s">
+      <c r="U25" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4103,8 +4103,8 @@
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
@@ -4137,14 +4137,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="67"/>
+      <c r="U26" s="64"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
@@ -4177,14 +4177,14 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="67"/>
+      <c r="U27" s="64"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4217,14 +4217,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="67"/>
+      <c r="U28" s="64"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
@@ -4257,16 +4257,16 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="67"/>
+      <c r="U29" s="64"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="67" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -4301,7 +4301,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="67" t="s">
+      <c r="U30" s="64" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4309,8 +4309,8 @@
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4343,14 +4343,14 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="67"/>
+      <c r="U31" s="64"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="59"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4383,14 +4383,14 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="67"/>
+      <c r="U32" s="64"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="59"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4423,14 +4423,14 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="67"/>
+      <c r="U33" s="64"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>44</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4465,7 +4465,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="67" t="s">
+      <c r="U34" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="59"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4507,16 +4507,16 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="67"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4551,7 +4551,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="67" t="s">
+      <c r="U36" s="64" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4559,8 +4559,8 @@
       <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="67"/>
+      <c r="U37" s="64"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
@@ -4691,10 +4691,10 @@
       <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="72" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4729,7 +4729,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="64" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4737,8 +4737,8 @@
       <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="65"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
@@ -4771,14 +4771,14 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="67"/>
+      <c r="U41" s="64"/>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>35</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="65"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
@@ -4811,14 +4811,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="67"/>
+      <c r="U42" s="64"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>36</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="65"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4851,14 +4851,14 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="67"/>
+      <c r="U43" s="64"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>37</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="65"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
@@ -4891,14 +4891,14 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="67"/>
+      <c r="U44" s="64"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="65"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
@@ -4931,14 +4931,14 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="67"/>
+      <c r="U45" s="64"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="65"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
@@ -4971,14 +4971,14 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="67"/>
+      <c r="U46" s="64"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>40</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="65"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
@@ -5011,14 +5011,14 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="67"/>
+      <c r="U47" s="64"/>
     </row>
     <row r="48" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>47</v>
       </c>
       <c r="C48" s="31"/>
-      <c r="D48" s="65"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="67"/>
+      <c r="U48" s="64"/>
     </row>
     <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -5108,7 +5108,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="69" t="s">
         <v>126</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -5143,7 +5143,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="68" t="s">
+      <c r="U50" s="65" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="60"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
@@ -5185,14 +5185,14 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="67"/>
+      <c r="U51" s="64"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="60"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5225,14 +5225,14 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="67"/>
+      <c r="U52" s="64"/>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="60"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5265,14 +5265,14 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="67"/>
+      <c r="U53" s="64"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="60"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="2" t="s">
         <v>107</v>
       </c>
@@ -5305,14 +5305,14 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="67"/>
+      <c r="U54" s="64"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="60"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="2" t="s">
         <v>113</v>
       </c>
@@ -5345,14 +5345,14 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="67"/>
+      <c r="U55" s="64"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="60"/>
+      <c r="D56" s="69"/>
       <c r="E56" s="2" t="s">
         <v>114</v>
       </c>
@@ -5385,14 +5385,14 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="67"/>
+      <c r="U56" s="64"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="60"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="2" t="s">
         <v>115</v>
       </c>
@@ -5425,14 +5425,14 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="67"/>
+      <c r="U57" s="64"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="60"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="2" t="s">
         <v>117</v>
       </c>
@@ -5465,14 +5465,14 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="67"/>
+      <c r="U58" s="64"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="60"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="2" t="s">
         <v>118</v>
       </c>
@@ -5505,14 +5505,14 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="67"/>
+      <c r="U59" s="64"/>
     </row>
     <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <v>58</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="60" t="s">
+      <c r="D60" s="69" t="s">
         <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -5547,7 +5547,7 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="68" t="s">
+      <c r="U60" s="65" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="60"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="2" t="s">
         <v>119</v>
       </c>
@@ -5589,14 +5589,14 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="67"/>
+      <c r="U61" s="64"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>60</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="60"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="2" t="s">
         <v>105</v>
       </c>
@@ -5629,14 +5629,14 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="67"/>
+      <c r="U62" s="64"/>
     </row>
     <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="60"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="2" t="s">
         <v>120</v>
       </c>
@@ -5669,14 +5669,14 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="67"/>
+      <c r="U63" s="64"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="60"/>
+      <c r="D64" s="69"/>
       <c r="E64" s="2" t="s">
         <v>121</v>
       </c>
@@ -5709,14 +5709,14 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="67"/>
+      <c r="U64" s="64"/>
     </row>
     <row r="65" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <v>63</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="60"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="2" t="s">
         <v>122</v>
       </c>
@@ -5749,14 +5749,14 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="67"/>
+      <c r="U65" s="64"/>
     </row>
     <row r="66" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>64</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="60"/>
+      <c r="D66" s="69"/>
       <c r="E66" s="2" t="s">
         <v>123</v>
       </c>
@@ -5789,14 +5789,14 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="67"/>
+      <c r="U66" s="64"/>
     </row>
     <row r="67" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <v>65</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="60"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="2" t="s">
         <v>116</v>
       </c>
@@ -5829,14 +5829,14 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="67"/>
+      <c r="U67" s="64"/>
     </row>
     <row r="68" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="60"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="2" t="s">
         <v>124</v>
       </c>
@@ -5869,14 +5869,14 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="67"/>
+      <c r="U68" s="64"/>
     </row>
     <row r="69" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="60"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="2" t="s">
         <v>125</v>
       </c>
@@ -5909,15 +5909,15 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="67"/>
-    </row>
-    <row r="70" spans="2:22" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="69">
+      <c r="U69" s="64"/>
+    </row>
+    <row r="70" spans="2:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="59">
         <v>68</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>108</v>
@@ -5935,26 +5935,26 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M70" s="70"/>
-      <c r="N70" s="70"/>
-      <c r="O70" s="70"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
-      <c r="S70" s="70"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="71" t="s">
+      <c r="M70" s="60"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="V70" s="72"/>
+      <c r="V70" s="62"/>
     </row>
     <row r="71" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
@@ -6044,13 +6044,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="2:22" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="69">
+    <row r="73" spans="2:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="59">
         <v>71</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>110</v>
@@ -6068,24 +6068,24 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="70"/>
-      <c r="T73" s="70"/>
-      <c r="U73" s="71" t="s">
-        <v>182</v>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
+      <c r="U73" s="61" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6243,7 +6243,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="28"/>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="71" t="s">
         <v>157</v>
       </c>
       <c r="E77" s="20" t="s">
@@ -6284,7 +6284,7 @@
       <c r="T77" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="U77" s="68" t="s">
+      <c r="U77" s="65" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="28"/>
-      <c r="D78" s="63"/>
+      <c r="D78" s="71"/>
       <c r="E78" s="20" t="s">
         <v>144</v>
       </c>
@@ -6332,14 +6332,14 @@
       <c r="T78" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="U78" s="68"/>
+      <c r="U78" s="65"/>
     </row>
     <row r="79" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
       <c r="C79" s="28"/>
-      <c r="D79" s="63"/>
+      <c r="D79" s="71"/>
       <c r="E79" s="20" t="s">
         <v>145</v>
       </c>
@@ -6378,14 +6378,14 @@
       <c r="T79" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="U79" s="68"/>
+      <c r="U79" s="65"/>
     </row>
     <row r="80" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
       <c r="C80" s="28"/>
-      <c r="D80" s="63"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="20" t="s">
         <v>146</v>
       </c>
@@ -6424,14 +6424,14 @@
       <c r="T80" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="U80" s="68"/>
+      <c r="U80" s="65"/>
     </row>
     <row r="81" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
       <c r="C81" s="28"/>
-      <c r="D81" s="63"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="20" t="s">
         <v>147</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="T81" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="U81" s="68"/>
+      <c r="U81" s="65"/>
     </row>
     <row r="82" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
@@ -6754,28 +6754,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U40:U48"/>
-    <mergeCell ref="U50:U59"/>
-    <mergeCell ref="U60:U69"/>
-    <mergeCell ref="U77:U81"/>
-    <mergeCell ref="U13:U23"/>
-    <mergeCell ref="U25:U29"/>
-    <mergeCell ref="U30:U33"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D13:D23"/>
     <mergeCell ref="D50:D59"/>
     <mergeCell ref="C30:C33"/>
@@ -6790,6 +6768,28 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D60:D69"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="U40:U48"/>
+    <mergeCell ref="U50:U59"/>
+    <mergeCell ref="U60:U69"/>
+    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="U13:U23"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="U30:U33"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="9810" yWindow="1005" windowWidth="14430" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Airsafe LED灯具配置参数汇总表" sheetId="1" r:id="rId1"/>
@@ -1271,15 +1271,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TOEL-08-LED-B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SBLMS-08-S-LED-R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOIL-08-L-LED-Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2058,12 +2050,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>8寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>LED</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2073,6 +2070,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2081,6 +2079,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2090,6 +2089,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2105,6 +2105,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2114,6 +2115,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2122,6 +2124,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2131,6 +2134,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2140,8 +2144,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>TOIL-08-L-LED-Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEL-08-LED-B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2507,7 +2515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2673,17 +2681,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3021,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W73" sqref="W73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,27 +3050,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3113,22 +3117,22 @@
         <v>85</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="U2" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,17 +3178,17 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3219,16 +3223,16 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="64" t="s">
-        <v>163</v>
+      <c r="U4" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3261,16 +3265,16 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="64"/>
+      <c r="U5" s="62"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3305,16 +3309,16 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="64" t="s">
-        <v>163</v>
+      <c r="U6" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -3347,16 +3351,16 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="62"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="65" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3391,16 +3395,16 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="64" t="s">
-        <v>163</v>
+      <c r="U8" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
@@ -3433,16 +3437,16 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="62"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="65" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3477,16 +3481,16 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="64" t="s">
-        <v>163</v>
+      <c r="U10" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3519,14 +3523,14 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="62"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
@@ -3559,16 +3563,16 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="64"/>
+      <c r="U12" s="62"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="65" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3603,16 +3607,16 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="64" t="s">
-        <v>163</v>
+      <c r="U13" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3645,14 +3649,14 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="62"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3685,14 +3689,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="62"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3725,14 +3729,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="62"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3765,14 +3769,14 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="62"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
@@ -3805,14 +3809,14 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="64"/>
+      <c r="U18" s="62"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3845,14 +3849,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="64"/>
+      <c r="U19" s="62"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3885,14 +3889,14 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="64"/>
+      <c r="U20" s="62"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3925,14 +3929,14 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="64"/>
+      <c r="U21" s="62"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
@@ -3965,14 +3969,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="64"/>
+      <c r="U22" s="62"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
@@ -4005,7 +4009,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="64"/>
+      <c r="U23" s="62"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -4050,17 +4054,17 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="65" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4095,16 +4099,16 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="64" t="s">
-        <v>164</v>
+      <c r="U25" s="62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
@@ -4137,14 +4141,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="64"/>
+      <c r="U26" s="62"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
@@ -4177,14 +4181,14 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="64"/>
+      <c r="U27" s="62"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4217,14 +4221,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="64"/>
+      <c r="U28" s="62"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
@@ -4257,16 +4261,16 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="64"/>
+      <c r="U29" s="62"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="65" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -4301,16 +4305,16 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="64" t="s">
-        <v>165</v>
+      <c r="U30" s="62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4343,14 +4347,14 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="64"/>
+      <c r="U31" s="62"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4383,14 +4387,14 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="64"/>
+      <c r="U32" s="62"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="67"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4423,14 +4427,14 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="64"/>
+      <c r="U33" s="62"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>44</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="65" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4465,8 +4469,8 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="64" t="s">
-        <v>164</v>
+      <c r="U34" s="62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,7 +4478,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="67"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4507,16 +4511,16 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="64"/>
+      <c r="U35" s="62"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4551,16 +4555,16 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="64" t="s">
-        <v>165</v>
+      <c r="U36" s="62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="67"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
@@ -4593,7 +4597,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="64"/>
+      <c r="U37" s="62"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
@@ -4638,7 +4642,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4684,17 +4688,17 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="70" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4729,16 +4733,16 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="64" t="s">
-        <v>163</v>
+      <c r="U40" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="73"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
@@ -4771,14 +4775,14 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="64"/>
+      <c r="U41" s="62"/>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>35</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="73"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
@@ -4811,14 +4815,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="64"/>
+      <c r="U42" s="62"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>36</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="73"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4851,14 +4855,14 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="64"/>
+      <c r="U43" s="62"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>37</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="73"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
@@ -4891,14 +4895,14 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="64"/>
+      <c r="U44" s="62"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="73"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
@@ -4931,14 +4935,14 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="64"/>
+      <c r="U45" s="62"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="73"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
@@ -4971,14 +4975,14 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="64"/>
+      <c r="U46" s="62"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>40</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="73"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
@@ -5011,14 +5015,14 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="64"/>
+      <c r="U47" s="62"/>
     </row>
     <row r="48" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>47</v>
       </c>
       <c r="C48" s="31"/>
-      <c r="D48" s="73"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
@@ -5051,7 +5055,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="64"/>
+      <c r="U48" s="62"/>
     </row>
     <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -5083,7 +5087,7 @@
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>90</v>
@@ -5100,7 +5104,7 @@
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5108,8 +5112,8 @@
         <v>48</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="69" t="s">
-        <v>126</v>
+      <c r="D50" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>101</v>
@@ -5143,8 +5147,8 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="65" t="s">
-        <v>167</v>
+      <c r="U50" s="63" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,7 +5156,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="69"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
@@ -5185,14 +5189,14 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="64"/>
+      <c r="U51" s="62"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="69"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5225,14 +5229,14 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="64"/>
+      <c r="U52" s="62"/>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="69"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5265,14 +5269,14 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="64"/>
+      <c r="U53" s="62"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="69"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="2" t="s">
         <v>107</v>
       </c>
@@ -5305,16 +5309,16 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="64"/>
+      <c r="U54" s="62"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="69"/>
+      <c r="D55" s="67"/>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
@@ -5345,16 +5349,16 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="64"/>
+      <c r="U55" s="62"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="69"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -5385,16 +5389,16 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="64"/>
+      <c r="U56" s="62"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="69"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -5425,16 +5429,16 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="64"/>
+      <c r="U57" s="62"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="69"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
@@ -5465,16 +5469,16 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="64"/>
+      <c r="U58" s="62"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="69"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
@@ -5505,15 +5509,15 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="64"/>
+      <c r="U59" s="62"/>
     </row>
     <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <v>58</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="69" t="s">
-        <v>127</v>
+      <c r="D60" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>102</v>
@@ -5547,8 +5551,8 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="65" t="s">
-        <v>168</v>
+      <c r="U60" s="63" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5556,9 +5560,9 @@
         <v>59</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="69"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" s="20">
         <v>0</v>
@@ -5589,14 +5593,14 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="64"/>
+      <c r="U61" s="62"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>60</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="69"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="2" t="s">
         <v>105</v>
       </c>
@@ -5629,16 +5633,16 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="64"/>
+      <c r="U62" s="62"/>
     </row>
     <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="69"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F63" s="20">
         <v>0</v>
@@ -5653,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K63" s="19" t="s">
         <v>74</v>
@@ -5669,16 +5673,16 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="64"/>
+      <c r="U63" s="62"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="69"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" s="20">
         <v>0</v>
@@ -5693,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>74</v>
@@ -5709,16 +5713,16 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="64"/>
+      <c r="U64" s="62"/>
     </row>
     <row r="65" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <v>63</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="69"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F65" s="20">
         <v>0</v>
@@ -5749,16 +5753,16 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="64"/>
+      <c r="U65" s="62"/>
     </row>
     <row r="66" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>64</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="69"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" s="20">
         <v>0</v>
@@ -5789,16 +5793,16 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="64"/>
+      <c r="U66" s="62"/>
     </row>
     <row r="67" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <v>65</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="69"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F67" s="20">
         <v>0</v>
@@ -5829,16 +5833,16 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="64"/>
+      <c r="U67" s="62"/>
     </row>
     <row r="68" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="69"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F68" s="20">
         <v>0</v>
@@ -5853,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>74</v>
@@ -5869,16 +5873,16 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="64"/>
+      <c r="U68" s="62"/>
     </row>
     <row r="69" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="69"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F69" s="20">
         <v>0</v>
@@ -5909,52 +5913,52 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="64"/>
-    </row>
-    <row r="70" spans="2:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="59">
+      <c r="U69" s="62"/>
+    </row>
+    <row r="70" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="24">
         <v>68</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L70" s="2" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="60"/>
-      <c r="T70" s="60"/>
-      <c r="U70" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="V70" s="62"/>
+      <c r="E70" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G70" s="20">
+        <v>0</v>
+      </c>
+      <c r="H70" s="20">
+        <v>0</v>
+      </c>
+      <c r="I70" s="20">
+        <v>0</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="V70" s="61"/>
     </row>
     <row r="71" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
@@ -5962,28 +5966,28 @@
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="20">
+        <v>0</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0</v>
+      </c>
+      <c r="H71" s="20">
+        <v>0</v>
+      </c>
+      <c r="I71" s="20">
+        <v>0</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K71" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" s="20">
-        <v>0</v>
-      </c>
-      <c r="G71" s="20">
-        <v>0</v>
-      </c>
-      <c r="H71" s="20">
-        <v>0</v>
-      </c>
-      <c r="I71" s="20">
-        <v>0</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="L71" s="19" t="s">
         <v>81</v>
@@ -5997,7 +6001,7 @@
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
       <c r="U71" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,10 +6010,10 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F72" s="20">
         <v>0</v>
@@ -6024,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K72" s="19" t="s">
         <v>75</v>
@@ -6041,51 +6045,51 @@
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
       <c r="U72" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="59">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24">
         <v>71</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="20"/>
+      <c r="D73" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="F73" s="20">
         <v>0.76</v>
       </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="s">
+      <c r="G73" s="20">
+        <v>0</v>
+      </c>
+      <c r="H73" s="20">
+        <v>0</v>
+      </c>
+      <c r="I73" s="20">
+        <v>0</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L73" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="60"/>
-      <c r="U73" s="61" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="74" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6094,10 +6098,10 @@
       </c>
       <c r="C74" s="28"/>
       <c r="D74" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F74" s="20">
         <v>0</v>
@@ -6111,10 +6115,10 @@
         <v>77</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
@@ -6132,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="T74" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U74" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,10 +6148,10 @@
       </c>
       <c r="C75" s="28"/>
       <c r="D75" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F75" s="20">
         <v>0</v>
@@ -6158,13 +6162,13 @@
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L75" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
@@ -6182,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="T75" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U75" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6194,10 +6198,10 @@
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F76" s="20">
         <v>0</v>
@@ -6208,13 +6212,13 @@
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L76" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
@@ -6232,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="T76" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U76" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6243,11 +6247,11 @@
         <v>75</v>
       </c>
       <c r="C77" s="28"/>
-      <c r="D77" s="71" t="s">
-        <v>157</v>
+      <c r="D77" s="69" t="s">
+        <v>155</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" s="20">
         <v>0</v>
@@ -6258,13 +6262,13 @@
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L77" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K77" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
@@ -6282,10 +6286,10 @@
         <v>0</v>
       </c>
       <c r="T77" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="U77" s="65" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+      <c r="U77" s="63" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6293,9 +6297,9 @@
         <v>76</v>
       </c>
       <c r="C78" s="28"/>
-      <c r="D78" s="71"/>
+      <c r="D78" s="69"/>
       <c r="E78" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F78" s="20">
         <v>0</v>
@@ -6306,13 +6310,13 @@
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L78" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
@@ -6330,18 +6334,18 @@
         <v>0</v>
       </c>
       <c r="T78" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="U78" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="U78" s="63"/>
     </row>
     <row r="79" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
       <c r="C79" s="28"/>
-      <c r="D79" s="71"/>
+      <c r="D79" s="69"/>
       <c r="E79" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F79" s="20">
         <v>0</v>
@@ -6352,13 +6356,13 @@
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L79" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L79" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
@@ -6376,18 +6380,18 @@
         <v>0</v>
       </c>
       <c r="T79" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="U79" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="U79" s="63"/>
     </row>
     <row r="80" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
       <c r="C80" s="28"/>
-      <c r="D80" s="71"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F80" s="20">
         <v>0</v>
@@ -6398,13 +6402,13 @@
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L80" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L80" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
@@ -6422,18 +6426,18 @@
         <v>0</v>
       </c>
       <c r="T80" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="U80" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="U80" s="63"/>
     </row>
     <row r="81" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
       <c r="C81" s="28"/>
-      <c r="D81" s="71"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F81" s="20">
         <v>0</v>
@@ -6444,13 +6448,13 @@
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L81" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L81" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
@@ -6468,9 +6472,9 @@
         <v>0</v>
       </c>
       <c r="T81" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="U81" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="U81" s="63"/>
     </row>
     <row r="82" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
@@ -6478,10 +6482,10 @@
       </c>
       <c r="C82" s="28"/>
       <c r="D82" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F82" s="20">
         <v>0</v>
@@ -6492,13 +6496,13 @@
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L82" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
@@ -6516,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="T82" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U82" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6528,10 +6532,10 @@
       </c>
       <c r="C83" s="28"/>
       <c r="D83" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F83" s="20">
         <v>0</v>
@@ -6542,13 +6546,13 @@
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L83" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
@@ -6566,10 +6570,10 @@
         <v>0</v>
       </c>
       <c r="T83" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U83" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6578,10 +6582,10 @@
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F84" s="20">
         <v>0</v>
@@ -6592,13 +6596,13 @@
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
@@ -6616,10 +6620,10 @@
         <v>0</v>
       </c>
       <c r="T84" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U84" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6628,10 +6632,10 @@
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F85" s="43">
         <v>0</v>
@@ -6642,13 +6646,13 @@
       </c>
       <c r="I85" s="44"/>
       <c r="J85" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="K85" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="L85" s="45" t="s">
         <v>139</v>
-      </c>
-      <c r="K85" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="L85" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="M85" s="44"/>
       <c r="N85" s="44"/>
@@ -6666,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="T85" s="46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U85" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="2:21" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6678,10 +6682,10 @@
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" s="43">
         <v>0.76</v>
@@ -6692,13 +6696,13 @@
       </c>
       <c r="I86" s="50"/>
       <c r="J86" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K86" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L86" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="50"/>
@@ -6709,7 +6713,7 @@
       <c r="S86" s="50"/>
       <c r="T86" s="50"/>
       <c r="U86" s="51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6718,10 +6722,10 @@
       </c>
       <c r="C87" s="53"/>
       <c r="D87" s="54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F87" s="55">
         <v>0</v>
@@ -6732,13 +6736,13 @@
       </c>
       <c r="I87" s="56"/>
       <c r="J87" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="K87" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="L87" s="57" t="s">
         <v>176</v>
-      </c>
-      <c r="K87" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="L87" s="57" t="s">
-        <v>178</v>
       </c>
       <c r="M87" s="56"/>
       <c r="N87" s="56"/>
@@ -6749,7 +6753,7 @@
       <c r="S87" s="56"/>
       <c r="T87" s="56"/>
       <c r="U87" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -3025,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,16 +4704,16 @@
       <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="41">
+        <v>1</v>
+      </c>
+      <c r="G40" s="41">
         <v>0.7</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="41">
         <v>0.45</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="41">
         <v>0</v>
       </c>
       <c r="J40" s="10" t="s">
@@ -4746,16 +4746,16 @@
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="H41" s="6">
+      <c r="F41" s="41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="41">
         <v>0.45</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="41">
         <v>0</v>
       </c>
       <c r="J41" s="10" t="s">
@@ -4786,16 +4786,16 @@
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="F42" s="41">
+        <v>1</v>
+      </c>
+      <c r="G42" s="41">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="41">
         <v>0.45</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="41">
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
@@ -4826,16 +4826,16 @@
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="41">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="41">
         <v>0.7</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="41">
         <v>0.45</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="41">
         <v>0</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -4866,16 +4866,16 @@
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="F44" s="41">
+        <v>1</v>
+      </c>
+      <c r="G44" s="41">
         <v>0.7</v>
       </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="H44" s="41">
+        <v>0</v>
+      </c>
+      <c r="I44" s="41">
         <v>0</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -4906,16 +4906,16 @@
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="F45" s="41">
+        <v>1</v>
+      </c>
+      <c r="G45" s="41">
+        <v>1</v>
+      </c>
+      <c r="H45" s="41">
+        <v>0</v>
+      </c>
+      <c r="I45" s="41">
         <v>0</v>
       </c>
       <c r="J45" s="10" t="s">
@@ -4946,20 +4946,20 @@
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="F46" s="41">
+        <v>1</v>
+      </c>
+      <c r="G46" s="41">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="41">
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>75</v>
@@ -4986,16 +4986,16 @@
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="41">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="41">
         <v>0.7</v>
       </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
+      <c r="H47" s="41">
+        <v>0</v>
+      </c>
+      <c r="I47" s="41">
         <v>0</v>
       </c>
       <c r="J47" s="10" t="s">
@@ -5026,16 +5026,16 @@
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="14">
-        <v>0.93</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0</v>
-      </c>
-      <c r="H48" s="14">
+      <c r="F48" s="41">
+        <v>1</v>
+      </c>
+      <c r="G48" s="41">
+        <v>0</v>
+      </c>
+      <c r="H48" s="41">
         <v>0.45</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="41">
         <v>0</v>
       </c>
       <c r="J48" s="15" t="s">

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -3025,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,16 +4704,16 @@
       <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="41">
-        <v>1</v>
-      </c>
-      <c r="G40" s="41">
+      <c r="F40" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G40" s="6">
         <v>0.7</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="6">
         <v>0.45</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="6">
         <v>0</v>
       </c>
       <c r="J40" s="10" t="s">
@@ -4746,16 +4746,16 @@
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="41">
+      <c r="F41" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="H41" s="6">
         <v>0.45</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="6">
         <v>0</v>
       </c>
       <c r="J41" s="10" t="s">
@@ -4786,16 +4786,16 @@
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="41">
-        <v>1</v>
-      </c>
-      <c r="G42" s="41">
+      <c r="F42" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G42" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="6">
         <v>0.45</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="6">
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
@@ -4826,16 +4826,16 @@
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G43" s="6">
         <v>0.7</v>
       </c>
-      <c r="H43" s="41">
+      <c r="H43" s="6">
         <v>0.45</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="6">
         <v>0</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -4866,16 +4866,16 @@
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="41">
-        <v>1</v>
-      </c>
-      <c r="G44" s="41">
+      <c r="F44" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G44" s="6">
         <v>0.7</v>
       </c>
-      <c r="H44" s="41">
-        <v>0</v>
-      </c>
-      <c r="I44" s="41">
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
         <v>0</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -4906,16 +4906,16 @@
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="41">
-        <v>1</v>
-      </c>
-      <c r="G45" s="41">
-        <v>1</v>
-      </c>
-      <c r="H45" s="41">
-        <v>0</v>
-      </c>
-      <c r="I45" s="41">
+      <c r="F45" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
         <v>0</v>
       </c>
       <c r="J45" s="10" t="s">
@@ -4946,20 +4946,20 @@
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="41">
-        <v>1</v>
-      </c>
-      <c r="G46" s="41">
+      <c r="F46" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G46" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H46" s="41">
-        <v>0</v>
-      </c>
-      <c r="I46" s="41">
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>75</v>
@@ -4986,16 +4986,16 @@
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="6">
         <v>0.7</v>
       </c>
-      <c r="H47" s="41">
-        <v>0</v>
-      </c>
-      <c r="I47" s="41">
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
         <v>0</v>
       </c>
       <c r="J47" s="10" t="s">
@@ -5026,16 +5026,16 @@
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="41">
-        <v>1</v>
-      </c>
-      <c r="G48" s="41">
-        <v>0</v>
-      </c>
-      <c r="H48" s="41">
+      <c r="F48" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
         <v>0.45</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="14">
         <v>0</v>
       </c>
       <c r="J48" s="15" t="s">

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -2515,7 +2515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,9 +2598,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2688,34 +2685,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3025,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,32 +3052,32 @@
     <col min="18" max="18" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.75" style="35" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3131,7 +3138,7 @@
       <c r="T2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="36" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3177,7 +3184,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="34" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3185,10 +3192,10 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="61" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3223,7 +3230,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3231,8 +3238,8 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3265,16 +3272,16 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="62"/>
+      <c r="U5" s="66"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="61" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3309,7 +3316,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="66" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3317,8 +3324,8 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -3351,16 +3358,16 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="61" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3395,7 +3402,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="66" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3403,8 +3410,8 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
@@ -3437,16 +3444,16 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="61" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3481,7 +3488,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="62" t="s">
+      <c r="U10" s="66" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3489,8 +3496,8 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3523,14 +3530,14 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
@@ -3563,16 +3570,16 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="62"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="61" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3607,7 +3614,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="62" t="s">
+      <c r="U13" s="66" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3615,8 +3622,8 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3649,14 +3656,14 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3689,14 +3696,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3729,14 +3736,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="65"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3769,14 +3776,14 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="62"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
@@ -3809,14 +3816,14 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="62"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3849,14 +3856,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="62"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3889,14 +3896,14 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="62"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="65"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3929,14 +3936,14 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="62"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
@@ -3969,14 +3976,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="62"/>
+      <c r="U22" s="66"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
@@ -4009,7 +4016,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="62"/>
+      <c r="U23" s="66"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -4053,7 +4060,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="35" t="s">
+      <c r="U24" s="34" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4061,10 +4068,10 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="61" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4099,7 +4106,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="62" t="s">
+      <c r="U25" s="66" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4107,8 +4114,8 @@
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="65"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
@@ -4141,14 +4148,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="62"/>
+      <c r="U26" s="66"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
@@ -4181,14 +4188,14 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="62"/>
+      <c r="U27" s="66"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="65"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4221,14 +4228,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="62"/>
+      <c r="U28" s="66"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="65"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
@@ -4261,16 +4268,16 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="62"/>
+      <c r="U29" s="66"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="61" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -4305,7 +4312,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="62" t="s">
+      <c r="U30" s="66" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4313,8 +4320,8 @@
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4347,14 +4354,14 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="62"/>
+      <c r="U31" s="66"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="65"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4387,14 +4394,14 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="62"/>
+      <c r="U32" s="66"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4427,14 +4434,14 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="62"/>
+      <c r="U33" s="66"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>44</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="61" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4469,7 +4476,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="62" t="s">
+      <c r="U34" s="66" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4478,7 +4485,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="65"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4511,16 +4518,16 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="62"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4555,7 +4562,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="62" t="s">
+      <c r="U36" s="66" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4563,8 +4570,8 @@
       <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="65"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
@@ -4597,7 +4604,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="62"/>
+      <c r="U37" s="66"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
@@ -4641,7 +4648,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="35" t="s">
+      <c r="U38" s="34" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4687,42 +4694,42 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
-      <c r="U39" s="35" t="s">
+      <c r="U39" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9">
+      <c r="B40" s="24">
         <v>33</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="73" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="2">
         <v>0.93</v>
       </c>
-      <c r="G40" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H40" s="6">
+      <c r="G40" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H40" s="20">
         <v>0.45</v>
       </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10" t="s">
+      <c r="I40" s="20">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M40" s="11"/>
@@ -4733,38 +4740,38 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="62" t="s">
+      <c r="U40" s="66" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
+      <c r="B41" s="24">
         <v>34</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="2">
         <v>0.93</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="2">
         <v>0.93</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="20">
         <v>0.45</v>
       </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="I41" s="20">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M41" s="11"/>
@@ -4775,36 +4782,36 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="62"/>
+      <c r="U41" s="66"/>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
+      <c r="B42" s="24">
         <v>35</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="2">
         <v>0.93</v>
       </c>
-      <c r="G42" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="G42" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H42" s="20">
         <v>0.45</v>
       </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10" t="s">
+      <c r="I42" s="20">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M42" s="11"/>
@@ -4815,36 +4822,36 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="62"/>
+      <c r="U42" s="66"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+      <c r="B43" s="24">
         <v>36</v>
       </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="71"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H43" s="6">
+      <c r="F43" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H43" s="20">
         <v>0.45</v>
       </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="10" t="s">
+      <c r="I43" s="20">
+        <v>0</v>
+      </c>
+      <c r="J43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M43" s="11"/>
@@ -4855,36 +4862,36 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="62"/>
+      <c r="U43" s="66"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9">
+      <c r="B44" s="24">
         <v>37</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="71"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="2">
         <v>0.93</v>
       </c>
-      <c r="G44" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="10" t="s">
+      <c r="G44" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>0</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M44" s="11"/>
@@ -4895,36 +4902,36 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="62"/>
+      <c r="U44" s="66"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+      <c r="B45" s="24">
         <v>38</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="2">
         <v>0.93</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="2">
         <v>0.93</v>
       </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="10" t="s">
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M45" s="11"/>
@@ -4935,36 +4942,36 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="62"/>
+      <c r="U45" s="66"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9">
+      <c r="B46" s="24">
         <v>39</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="2">
         <v>0.93</v>
       </c>
-      <c r="G46" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="10" t="s">
+      <c r="G46" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H46" s="20">
+        <v>0</v>
+      </c>
+      <c r="I46" s="20">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M46" s="11"/>
@@ -4975,36 +4982,36 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="62"/>
+      <c r="U46" s="66"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+      <c r="B47" s="24">
         <v>40</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="10" t="s">
+      <c r="F47" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="19" t="s">
         <v>76</v>
       </c>
       <c r="M47" s="11"/>
@@ -5015,47 +5022,47 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="62"/>
-    </row>
-    <row r="48" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+      <c r="U47" s="66"/>
+    </row>
+    <row r="48" spans="2:21" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="68">
         <v>47</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="71"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="2">
         <v>0.93</v>
       </c>
-      <c r="G48" s="14">
-        <v>0</v>
-      </c>
-      <c r="H48" s="14">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
         <v>0.45</v>
       </c>
-      <c r="I48" s="14">
-        <v>0</v>
-      </c>
-      <c r="J48" s="15" t="s">
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="62"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="66"/>
     </row>
     <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -5103,7 +5110,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="34" t="s">
+      <c r="U49" s="33" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5112,7 +5119,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="62" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -5147,7 +5154,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="63" t="s">
+      <c r="U50" s="67" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5156,7 +5163,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="67"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
@@ -5189,14 +5196,14 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="62"/>
+      <c r="U51" s="66"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="67"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5229,14 +5236,14 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="62"/>
+      <c r="U52" s="66"/>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="67"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5269,14 +5276,14 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="62"/>
+      <c r="U53" s="66"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="67"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="2" t="s">
         <v>107</v>
       </c>
@@ -5309,14 +5316,14 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="62"/>
+      <c r="U54" s="66"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="67"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="2" t="s">
         <v>111</v>
       </c>
@@ -5349,14 +5356,14 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="62"/>
+      <c r="U55" s="66"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="67"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="2" t="s">
         <v>112</v>
       </c>
@@ -5389,14 +5396,14 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="62"/>
+      <c r="U56" s="66"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="67"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="2" t="s">
         <v>113</v>
       </c>
@@ -5429,14 +5436,14 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="62"/>
+      <c r="U57" s="66"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="67"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="2" t="s">
         <v>115</v>
       </c>
@@ -5469,14 +5476,14 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="62"/>
+      <c r="U58" s="66"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="67"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="2" t="s">
         <v>116</v>
       </c>
@@ -5509,14 +5516,14 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="62"/>
+      <c r="U59" s="66"/>
     </row>
     <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <v>58</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="67" t="s">
+      <c r="D60" s="62" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -5551,7 +5558,7 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="63" t="s">
+      <c r="U60" s="67" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5560,7 +5567,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="67"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="2" t="s">
         <v>117</v>
       </c>
@@ -5593,14 +5600,14 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="62"/>
+      <c r="U61" s="66"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>60</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="67"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="2" t="s">
         <v>105</v>
       </c>
@@ -5633,14 +5640,14 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="62"/>
+      <c r="U62" s="66"/>
     </row>
     <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="67"/>
+      <c r="D63" s="62"/>
       <c r="E63" s="2" t="s">
         <v>118</v>
       </c>
@@ -5673,14 +5680,14 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="62"/>
+      <c r="U63" s="66"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="67"/>
+      <c r="D64" s="62"/>
       <c r="E64" s="2" t="s">
         <v>119</v>
       </c>
@@ -5713,14 +5720,14 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="62"/>
+      <c r="U64" s="66"/>
     </row>
     <row r="65" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <v>63</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="67"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="2" t="s">
         <v>120</v>
       </c>
@@ -5753,14 +5760,14 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="62"/>
+      <c r="U65" s="66"/>
     </row>
     <row r="66" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>64</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="67"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="2" t="s">
         <v>121</v>
       </c>
@@ -5793,14 +5800,14 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="62"/>
+      <c r="U66" s="66"/>
     </row>
     <row r="67" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <v>65</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="67"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="2" t="s">
         <v>114</v>
       </c>
@@ -5833,14 +5840,14 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="62"/>
+      <c r="U67" s="66"/>
     </row>
     <row r="68" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="67"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="2" t="s">
         <v>122</v>
       </c>
@@ -5873,14 +5880,14 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="62"/>
+      <c r="U68" s="66"/>
     </row>
     <row r="69" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="67"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="2" t="s">
         <v>123</v>
       </c>
@@ -5913,14 +5920,14 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="62"/>
+      <c r="U69" s="66"/>
     </row>
     <row r="70" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="24">
         <v>68</v>
       </c>
       <c r="C70" s="20"/>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="58" t="s">
         <v>183</v>
       </c>
       <c r="E70" s="20" t="s">
@@ -5955,10 +5962,10 @@
       <c r="R70" s="25"/>
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
-      <c r="U70" s="60" t="s">
+      <c r="U70" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="V70" s="61"/>
+      <c r="V70" s="60"/>
     </row>
     <row r="71" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
@@ -6000,7 +6007,7 @@
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="34" t="s">
+      <c r="U71" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6044,7 +6051,7 @@
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
-      <c r="U72" s="34" t="s">
+      <c r="U72" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6053,7 +6060,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="20"/>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>184</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -6088,7 +6095,7 @@
       <c r="R73" s="25"/>
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
-      <c r="U73" s="60" t="s">
+      <c r="U73" s="59" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6097,7 +6104,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="28"/>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="31" t="s">
         <v>135</v>
       </c>
       <c r="E74" s="20" t="s">
@@ -6123,22 +6130,22 @@
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
       <c r="O74" s="29"/>
-      <c r="P74" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="41">
-        <v>0</v>
-      </c>
-      <c r="R74" s="41">
-        <v>0</v>
-      </c>
-      <c r="S74" s="41">
+      <c r="P74" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="40">
+        <v>0</v>
+      </c>
+      <c r="R74" s="40">
+        <v>0</v>
+      </c>
+      <c r="S74" s="40">
         <v>0</v>
       </c>
       <c r="T74" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="U74" s="34" t="s">
+      <c r="U74" s="33" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6147,7 +6154,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="28"/>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="32" t="s">
         <v>152</v>
       </c>
       <c r="E75" s="20" t="s">
@@ -6173,22 +6180,22 @@
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
-      <c r="P75" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="41">
-        <v>0</v>
-      </c>
-      <c r="R75" s="41">
-        <v>0</v>
-      </c>
-      <c r="S75" s="41">
+      <c r="P75" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="40">
+        <v>0</v>
+      </c>
+      <c r="R75" s="40">
+        <v>0</v>
+      </c>
+      <c r="S75" s="40">
         <v>0</v>
       </c>
       <c r="T75" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="U75" s="34" t="s">
+      <c r="U75" s="33" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6197,7 +6204,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="28"/>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="32" t="s">
         <v>153</v>
       </c>
       <c r="E76" s="20" t="s">
@@ -6223,22 +6230,22 @@
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
-      <c r="P76" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="41">
-        <v>0</v>
-      </c>
-      <c r="R76" s="41">
-        <v>0</v>
-      </c>
-      <c r="S76" s="41">
+      <c r="P76" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="40">
+        <v>0</v>
+      </c>
+      <c r="R76" s="40">
+        <v>0</v>
+      </c>
+      <c r="S76" s="40">
         <v>0</v>
       </c>
       <c r="T76" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U76" s="34" t="s">
+      <c r="U76" s="33" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6247,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="28"/>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="64" t="s">
         <v>155</v>
       </c>
       <c r="E77" s="20" t="s">
@@ -6273,22 +6280,22 @@
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
       <c r="O77" s="29"/>
-      <c r="P77" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="41">
-        <v>0</v>
-      </c>
-      <c r="R77" s="41">
-        <v>0</v>
-      </c>
-      <c r="S77" s="41">
+      <c r="P77" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="40">
+        <v>0</v>
+      </c>
+      <c r="R77" s="40">
+        <v>0</v>
+      </c>
+      <c r="S77" s="40">
         <v>0</v>
       </c>
       <c r="T77" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U77" s="63" t="s">
+      <c r="U77" s="67" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6297,7 +6304,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="28"/>
-      <c r="D78" s="69"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="20" t="s">
         <v>142</v>
       </c>
@@ -6321,29 +6328,29 @@
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
       <c r="O78" s="29"/>
-      <c r="P78" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="41">
-        <v>0</v>
-      </c>
-      <c r="R78" s="41">
-        <v>0</v>
-      </c>
-      <c r="S78" s="41">
+      <c r="P78" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="40">
+        <v>0</v>
+      </c>
+      <c r="R78" s="40">
+        <v>0</v>
+      </c>
+      <c r="S78" s="40">
         <v>0</v>
       </c>
       <c r="T78" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U78" s="63"/>
+      <c r="U78" s="67"/>
     </row>
     <row r="79" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
       <c r="C79" s="28"/>
-      <c r="D79" s="69"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="20" t="s">
         <v>143</v>
       </c>
@@ -6367,29 +6374,29 @@
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
       <c r="O79" s="29"/>
-      <c r="P79" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="41">
-        <v>0</v>
-      </c>
-      <c r="R79" s="41">
-        <v>0</v>
-      </c>
-      <c r="S79" s="41">
+      <c r="P79" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="40">
+        <v>0</v>
+      </c>
+      <c r="R79" s="40">
+        <v>0</v>
+      </c>
+      <c r="S79" s="40">
         <v>0</v>
       </c>
       <c r="T79" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U79" s="63"/>
+      <c r="U79" s="67"/>
     </row>
     <row r="80" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
       <c r="C80" s="28"/>
-      <c r="D80" s="69"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="20" t="s">
         <v>144</v>
       </c>
@@ -6413,29 +6420,29 @@
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
-      <c r="P80" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="41">
-        <v>0</v>
-      </c>
-      <c r="R80" s="41">
-        <v>0</v>
-      </c>
-      <c r="S80" s="41">
+      <c r="P80" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="40">
+        <v>0</v>
+      </c>
+      <c r="R80" s="40">
+        <v>0</v>
+      </c>
+      <c r="S80" s="40">
         <v>0</v>
       </c>
       <c r="T80" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U80" s="63"/>
+      <c r="U80" s="67"/>
     </row>
     <row r="81" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
       <c r="C81" s="28"/>
-      <c r="D81" s="69"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="20" t="s">
         <v>145</v>
       </c>
@@ -6459,29 +6466,29 @@
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
       <c r="O81" s="29"/>
-      <c r="P81" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="41">
-        <v>0</v>
-      </c>
-      <c r="R81" s="41">
-        <v>0</v>
-      </c>
-      <c r="S81" s="41">
+      <c r="P81" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="40">
+        <v>0</v>
+      </c>
+      <c r="R81" s="40">
+        <v>0</v>
+      </c>
+      <c r="S81" s="40">
         <v>0</v>
       </c>
       <c r="T81" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U81" s="63"/>
+      <c r="U81" s="67"/>
     </row>
     <row r="82" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>80</v>
       </c>
       <c r="C82" s="28"/>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="32" t="s">
         <v>156</v>
       </c>
       <c r="E82" s="20" t="s">
@@ -6507,22 +6514,22 @@
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
       <c r="O82" s="29"/>
-      <c r="P82" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="41">
-        <v>0</v>
-      </c>
-      <c r="R82" s="41">
-        <v>0</v>
-      </c>
-      <c r="S82" s="41">
+      <c r="P82" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="40">
+        <v>0</v>
+      </c>
+      <c r="R82" s="40">
+        <v>0</v>
+      </c>
+      <c r="S82" s="40">
         <v>0</v>
       </c>
       <c r="T82" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U82" s="34" t="s">
+      <c r="U82" s="33" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6531,7 +6538,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="28"/>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="32" t="s">
         <v>154</v>
       </c>
       <c r="E83" s="20" t="s">
@@ -6557,22 +6564,22 @@
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
       <c r="O83" s="29"/>
-      <c r="P83" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="41">
-        <v>0</v>
-      </c>
-      <c r="R83" s="41">
-        <v>0</v>
-      </c>
-      <c r="S83" s="41">
+      <c r="P83" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="40">
+        <v>0</v>
+      </c>
+      <c r="R83" s="40">
+        <v>0</v>
+      </c>
+      <c r="S83" s="40">
         <v>0</v>
       </c>
       <c r="T83" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U83" s="34" t="s">
+      <c r="U83" s="33" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6581,7 +6588,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="28"/>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="32" t="s">
         <v>157</v>
       </c>
       <c r="E84" s="20" t="s">
@@ -6607,157 +6614,179 @@
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
       <c r="O84" s="29"/>
-      <c r="P84" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="41">
-        <v>0</v>
-      </c>
-      <c r="R84" s="41">
-        <v>0</v>
-      </c>
-      <c r="S84" s="41">
+      <c r="P84" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="40">
+        <v>0</v>
+      </c>
+      <c r="R84" s="40">
+        <v>0</v>
+      </c>
+      <c r="S84" s="40">
         <v>0</v>
       </c>
       <c r="T84" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U84" s="34" t="s">
+      <c r="U84" s="33" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="38">
+      <c r="B85" s="37">
         <v>83</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="42" t="s">
+      <c r="C85" s="38"/>
+      <c r="D85" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E85" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="43">
-        <v>0</v>
-      </c>
-      <c r="G85" s="44"/>
-      <c r="H85" s="43">
-        <v>0</v>
-      </c>
-      <c r="I85" s="44"/>
-      <c r="J85" s="45" t="s">
+      <c r="F85" s="42">
+        <v>0</v>
+      </c>
+      <c r="G85" s="43"/>
+      <c r="H85" s="42">
+        <v>0</v>
+      </c>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="K85" s="45" t="s">
+      <c r="K85" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="L85" s="45" t="s">
+      <c r="L85" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="48">
-        <v>0</v>
-      </c>
-      <c r="R85" s="48">
-        <v>0</v>
-      </c>
-      <c r="S85" s="48">
-        <v>0</v>
-      </c>
-      <c r="T85" s="46" t="s">
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="47">
+        <v>0</v>
+      </c>
+      <c r="R85" s="47">
+        <v>0</v>
+      </c>
+      <c r="S85" s="47">
+        <v>0</v>
+      </c>
+      <c r="T85" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="U85" s="47" t="s">
+      <c r="U85" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="2:21" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="38">
+    <row r="86" spans="2:21" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="37">
         <v>84</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="42" t="s">
+      <c r="C86" s="48"/>
+      <c r="D86" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="E86" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="F86" s="43">
+      <c r="F86" s="42">
         <v>0.76</v>
       </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="43">
-        <v>0</v>
-      </c>
-      <c r="I86" s="50"/>
-      <c r="J86" s="45" t="s">
+      <c r="G86" s="49"/>
+      <c r="H86" s="42">
+        <v>0</v>
+      </c>
+      <c r="I86" s="49"/>
+      <c r="J86" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="K86" s="45" t="s">
+      <c r="K86" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="L86" s="45" t="s">
+      <c r="L86" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="51" t="s">
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="50" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="52">
+      <c r="B87" s="51">
         <v>85</v>
       </c>
-      <c r="C87" s="53"/>
-      <c r="D87" s="54" t="s">
+      <c r="C87" s="52"/>
+      <c r="D87" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="55" t="s">
+      <c r="E87" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="F87" s="55">
-        <v>0</v>
-      </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="55">
-        <v>0</v>
-      </c>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57" t="s">
+      <c r="F87" s="54">
+        <v>0</v>
+      </c>
+      <c r="G87" s="55"/>
+      <c r="H87" s="54">
+        <v>0</v>
+      </c>
+      <c r="I87" s="55"/>
+      <c r="J87" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="K87" s="57" t="s">
+      <c r="K87" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="L87" s="57" t="s">
+      <c r="L87" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="58" t="s">
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="57" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U40:U48"/>
+    <mergeCell ref="U50:U59"/>
+    <mergeCell ref="U60:U69"/>
+    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="U13:U23"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="U30:U33"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D13:D23"/>
     <mergeCell ref="D50:D59"/>
     <mergeCell ref="C30:C33"/>
@@ -6772,28 +6801,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D60:D69"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="U40:U48"/>
-    <mergeCell ref="U50:U59"/>
-    <mergeCell ref="U60:U69"/>
-    <mergeCell ref="U77:U81"/>
-    <mergeCell ref="U13:U23"/>
-    <mergeCell ref="U25:U29"/>
-    <mergeCell ref="U30:U33"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="190">
   <si>
     <t>IA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>RCLS-08-LED-RB-1P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCLS-08-LED-CC-1P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2150,6 +2146,18 @@
   <si>
     <t>TOEL-08-LED-B</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCLS-08-LED-CC-1P</t>
+  </si>
+  <si>
+    <t>RCLS-08-LED-CC-2P</t>
+  </si>
+  <si>
+    <t>RCLS-08-LED-CR-2P</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2508,6 +2516,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2515,7 +2571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,6 +2741,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2694,9 +2763,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2706,23 +2793,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3030,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V87"/>
+  <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,8 +3124,8 @@
     <col min="4" max="4" width="56.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="16.125" style="1" bestFit="1" customWidth="1"/>
@@ -3057,41 +3137,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
+      <c r="B1" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>0</v>
@@ -3106,40 +3186,40 @@
         <v>3</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="P2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="U2" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -3168,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -3185,21 +3265,21 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>34</v>
+      <c r="D4" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
@@ -3214,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -3230,18 +3310,18 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="66" t="s">
-        <v>161</v>
+      <c r="U4" s="77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -3256,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -3272,20 +3352,20 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="66"/>
+      <c r="U5" s="77"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>35</v>
+      <c r="D6" s="66" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -3300,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -3316,39 +3396,39 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="66" t="s">
-        <v>161</v>
+      <c r="U6" s="77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -3358,20 +3438,20 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="77"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="61" t="s">
-        <v>36</v>
+      <c r="D8" s="66" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -3386,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -3402,18 +3482,18 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="66" t="s">
-        <v>161</v>
+      <c r="U8" s="77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -3428,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -3444,20 +3524,20 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="77"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>37</v>
+      <c r="D10" s="66" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -3472,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -3488,18 +3568,18 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="66" t="s">
-        <v>161</v>
+      <c r="U10" s="77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3514,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -3530,16 +3610,16 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="77"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="61"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3554,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -3570,20 +3650,20 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="66"/>
+      <c r="U12" s="77"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>38</v>
+      <c r="D13" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3598,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -3614,18 +3694,18 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="66" t="s">
-        <v>161</v>
+      <c r="U13" s="77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3640,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -3656,16 +3736,16 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="77"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -3680,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -3696,16 +3776,16 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="77"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -3720,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -3736,16 +3816,16 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="77"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3760,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -3776,16 +3856,16 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="66"/>
+      <c r="U17" s="77"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="61"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -3800,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -3816,16 +3896,16 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="66"/>
+      <c r="U18" s="77"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -3840,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -3856,16 +3936,16 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="66"/>
+      <c r="U19" s="77"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="61"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3880,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -3896,16 +3976,16 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="66"/>
+      <c r="U20" s="77"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="61"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -3920,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -3936,16 +4016,16 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="66"/>
+      <c r="U21" s="77"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -3960,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -3976,16 +4056,16 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="66"/>
+      <c r="U22" s="77"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="14">
         <v>0</v>
@@ -4000,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -4016,7 +4096,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="66"/>
+      <c r="U23" s="77"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -4026,7 +4106,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -4044,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -4061,21 +4141,21 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>40</v>
+      <c r="D25" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -4090,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -4106,18 +4186,18 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="66" t="s">
-        <v>162</v>
+      <c r="U25" s="77" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -4132,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -4148,16 +4228,16 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="66"/>
+      <c r="U26" s="77"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="61"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -4172,13 +4252,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -4188,16 +4268,16 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="66"/>
+      <c r="U27" s="77"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="61"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="14">
         <v>0.76</v>
@@ -4212,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
@@ -4228,16 +4308,16 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="66"/>
+      <c r="U28" s="77"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="61"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="3">
         <v>0.76</v>
@@ -4252,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
@@ -4268,17 +4348,17 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="66"/>
+      <c r="U29" s="77"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>91</v>
+      <c r="D30" s="73" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -4296,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -4312,16 +4392,16 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="66" t="s">
-        <v>163</v>
+      <c r="U30" s="79" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="61"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4338,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -4354,16 +4434,16 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="66"/>
+      <c r="U31" s="80"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="61"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -4378,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -4394,16 +4474,16 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="66"/>
+      <c r="U32" s="80"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="61"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
@@ -4418,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -4434,190 +4514,184 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="66"/>
-    </row>
-    <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+      <c r="U33" s="80"/>
+    </row>
+    <row r="34" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="24">
+        <v>86</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="J34" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="80"/>
+    </row>
+    <row r="35" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="24">
+        <v>87</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0</v>
+      </c>
+      <c r="J35" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="81"/>
+    </row>
+    <row r="36" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
         <v>44</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="61" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="14">
+      <c r="F36" s="14">
         <v>0.7</v>
       </c>
-      <c r="G34" s="14">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
         <v>0.7</v>
       </c>
-      <c r="I34" s="14">
-        <v>0</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
-        <v>45</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="I35" s="14">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="66"/>
-    </row>
-    <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
-        <v>29</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="10" t="s">
+      <c r="I36" s="14">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
-        <v>30</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="10" t="s">
+      <c r="U36" s="77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="66"/>
+      <c r="U37" s="77"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
-        <v>31</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -4632,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -4648,22 +4722,18 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="34" t="s">
-        <v>163</v>
+      <c r="U38" s="77" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
-        <v>32</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -4678,13 +4748,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -4694,43 +4764,41 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
-      <c r="U39" s="34" t="s">
-        <v>163</v>
-      </c>
+      <c r="U39" s="77"/>
     </row>
     <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24">
-        <v>33</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="73" t="s">
-        <v>98</v>
+      <c r="B40" s="9">
+        <v>31</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="H40" s="20">
-        <v>0.45</v>
-      </c>
-      <c r="I40" s="20">
-        <v>0</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>76</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -4740,39 +4808,43 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="66" t="s">
-        <v>161</v>
+      <c r="U40" s="34" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24">
-        <v>34</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="74"/>
+      <c r="B41" s="9">
+        <v>32</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="E41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="H41" s="20">
-        <v>0.45</v>
-      </c>
-      <c r="I41" s="20">
-        <v>0</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>76</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -4782,16 +4854,22 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="66"/>
+      <c r="U41" s="34" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="24">
-        <v>35</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="74"/>
+        <v>33</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F42" s="2">
         <v>0.93</v>
@@ -4806,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -4822,22 +4900,24 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="66"/>
+      <c r="U42" s="77" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24">
-        <v>36</v>
-      </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="74"/>
+        <v>34</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F43" s="2">
-        <v>0.69</v>
+        <v>0.93</v>
       </c>
       <c r="G43" s="2">
-        <v>0.69</v>
+        <v>0.93</v>
       </c>
       <c r="H43" s="20">
         <v>0.45</v>
@@ -4846,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -4862,16 +4942,16 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="66"/>
+      <c r="U43" s="77"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="24">
-        <v>37</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="74"/>
+        <v>35</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F44" s="2">
         <v>0.93</v>
@@ -4880,19 +4960,19 @@
         <v>0.69</v>
       </c>
       <c r="H44" s="20">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I44" s="20">
         <v>0</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -4902,37 +4982,37 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="66"/>
+      <c r="U44" s="77"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="24">
-        <v>38</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="74"/>
+        <v>36</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F45" s="2">
-        <v>0.93</v>
+        <v>0.69</v>
       </c>
       <c r="G45" s="2">
-        <v>0.93</v>
+        <v>0.69</v>
       </c>
       <c r="H45" s="20">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I45" s="20">
         <v>0</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -4942,16 +5022,16 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="66"/>
+      <c r="U45" s="77"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="24">
-        <v>39</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="74"/>
+        <v>37</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F46" s="2">
         <v>0.93</v>
@@ -4966,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K46" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -4982,22 +5062,22 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="66"/>
+      <c r="U46" s="77"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="24">
-        <v>40</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="74"/>
+        <v>38</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F47" s="2">
-        <v>0.69</v>
+        <v>0.93</v>
       </c>
       <c r="G47" s="2">
-        <v>0.69</v>
+        <v>0.93</v>
       </c>
       <c r="H47" s="20">
         <v>0</v>
@@ -5006,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -5022,211 +5102,209 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="66"/>
-    </row>
-    <row r="48" spans="2:21" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="68">
-        <v>47</v>
+      <c r="U47" s="77"/>
+    </row>
+    <row r="48" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24">
+        <v>39</v>
       </c>
       <c r="C48" s="69"/>
-      <c r="D48" s="74"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F48" s="2">
         <v>0.93</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="70" t="s">
+        <v>0.69</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K48" s="70" t="s">
+      <c r="L48" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="77"/>
+    </row>
+    <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="24">
+        <v>40</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H49" s="20">
+        <v>0</v>
+      </c>
+      <c r="I49" s="20">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="L48" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="66"/>
-    </row>
-    <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="L49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="62" t="s">
-        <v>124</v>
-      </c>
+      <c r="U49" s="77"/>
+    </row>
+    <row r="50" spans="2:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="61">
+        <v>47</v>
+      </c>
+      <c r="C50" s="62"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="L50" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="67" t="s">
-        <v>165</v>
-      </c>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="77"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="62"/>
+        <v>41</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F51" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
       </c>
       <c r="H51" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I51" s="6">
         <v>0</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="O51" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="66"/>
+      <c r="U51" s="33" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="62"/>
+      <c r="D52" s="67" t="s">
+        <v>123</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="6">
         <v>0</v>
       </c>
       <c r="H52" s="6">
         <v>0</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="6">
         <v>0</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -5236,16 +5314,18 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="66"/>
+      <c r="U52" s="78" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="62"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
@@ -5260,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -5276,37 +5356,37 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="66"/>
+      <c r="U53" s="77"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="62"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="14">
         <v>0</v>
       </c>
       <c r="H54" s="6">
         <v>0</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="14">
         <v>0</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -5316,37 +5396,37 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="66"/>
+      <c r="U54" s="77"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="62"/>
+      <c r="D55" s="67"/>
       <c r="E55" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="6">
         <v>0</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -5356,16 +5436,16 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="66"/>
+      <c r="U55" s="77"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="62"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -5380,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -5396,37 +5476,37 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="66"/>
+      <c r="U56" s="77"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="62"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="14">
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>0</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="14">
         <v>0</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -5436,37 +5516,37 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="66"/>
+      <c r="U57" s="77"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="62"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="6">
         <v>0</v>
       </c>
       <c r="H58" s="6">
         <v>0</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="6">
         <v>0</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -5476,16 +5556,16 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="66"/>
+      <c r="U58" s="77"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="62"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
@@ -5500,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -5516,100 +5596,98 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="66"/>
-    </row>
-    <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="24">
-        <v>58</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="62" t="s">
-        <v>125</v>
-      </c>
+      <c r="U59" s="77"/>
+    </row>
+    <row r="60" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>56</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="20">
-        <v>0</v>
-      </c>
-      <c r="G60" s="20">
-        <v>0</v>
-      </c>
-      <c r="H60" s="20">
-        <v>0</v>
-      </c>
-      <c r="I60" s="20">
-        <v>0</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K60" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
+      <c r="L60" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="24">
-        <v>59</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="62"/>
+      <c r="U60" s="77"/>
+    </row>
+    <row r="61" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="20">
-        <v>0</v>
-      </c>
-      <c r="G61" s="20">
-        <v>0</v>
-      </c>
-      <c r="H61" s="20">
-        <v>0</v>
-      </c>
-      <c r="I61" s="20">
-        <v>0</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L61" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
+      <c r="L61" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="66"/>
+      <c r="U61" s="77"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="62"/>
+      <c r="D62" s="67" t="s">
+        <v>124</v>
+      </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F62" s="20">
         <v>0</v>
@@ -5624,13 +5702,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
@@ -5640,16 +5718,18 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="66"/>
-    </row>
-    <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9">
-        <v>61</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="62"/>
+      <c r="U62" s="78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="24">
+        <v>59</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F63" s="20">
         <v>0</v>
@@ -5664,32 +5744,32 @@
         <v>0</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="66"/>
-    </row>
-    <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9">
-        <v>62</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="62"/>
+      <c r="U63" s="77"/>
+    </row>
+    <row r="64" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="24">
+        <v>60</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F64" s="20">
         <v>0</v>
@@ -5704,32 +5784,32 @@
         <v>0</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="66"/>
-    </row>
-    <row r="65" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="24">
-        <v>63</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="62"/>
+      <c r="U64" s="77"/>
+    </row>
+    <row r="65" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9">
+        <v>61</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F65" s="20">
         <v>0</v>
@@ -5744,32 +5824,32 @@
         <v>0</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="66"/>
-    </row>
-    <row r="66" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="24">
-        <v>64</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="62"/>
+      <c r="U65" s="77"/>
+    </row>
+    <row r="66" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="9">
+        <v>62</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" s="20">
         <v>0</v>
@@ -5784,32 +5864,32 @@
         <v>0</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="66"/>
+      <c r="U66" s="77"/>
     </row>
     <row r="67" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="62"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F67" s="20">
         <v>0</v>
@@ -5824,13 +5904,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
@@ -5840,56 +5920,56 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="66"/>
-    </row>
-    <row r="68" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9">
-        <v>66</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="62"/>
+      <c r="U67" s="77"/>
+    </row>
+    <row r="68" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="24">
+        <v>64</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F68" s="20">
         <v>0</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="20">
         <v>0</v>
       </c>
       <c r="H68" s="20">
         <v>0</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="20">
         <v>0</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="66"/>
-    </row>
-    <row r="69" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
-        <v>67</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="62"/>
+      <c r="U68" s="77"/>
+    </row>
+    <row r="69" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="24">
+        <v>65</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F69" s="20">
         <v>0</v>
@@ -5904,79 +5984,72 @@
         <v>0</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="66"/>
-    </row>
-    <row r="70" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="24">
-        <v>68</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>186</v>
+      <c r="U69" s="77"/>
+    </row>
+    <row r="70" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="9">
+        <v>66</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F70" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="G70" s="20">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
         <v>0</v>
       </c>
       <c r="H70" s="20">
         <v>0</v>
       </c>
-      <c r="I70" s="20">
-        <v>0</v>
-      </c>
-      <c r="J70" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="L70" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="V70" s="60"/>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="77"/>
     </row>
     <row r="71" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" s="6"/>
-      <c r="D71" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="D71" s="67"/>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F71" s="20">
         <v>0</v>
@@ -5991,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -6007,208 +6080,195 @@
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9">
+      <c r="U71" s="77"/>
+    </row>
+    <row r="72" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="24">
+        <v>68</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0</v>
+      </c>
+      <c r="I72" s="20">
+        <v>0</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L72" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="V72" s="60"/>
+    </row>
+    <row r="73" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9">
+        <v>69</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="20">
+        <v>0</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0</v>
+      </c>
+      <c r="H73" s="20">
+        <v>0</v>
+      </c>
+      <c r="I73" s="20">
+        <v>0</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9">
         <v>70</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="3" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F72" s="20">
-        <v>0</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="20">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L72" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="24">
+      <c r="F74" s="20">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="20">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="24">
         <v>71</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="58" t="s">
+      <c r="C75" s="20"/>
+      <c r="D75" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F73" s="20">
+      <c r="F75" s="20">
         <v>0.76</v>
       </c>
-      <c r="G73" s="20">
-        <v>0</v>
-      </c>
-      <c r="H73" s="20">
-        <v>0</v>
-      </c>
-      <c r="I73" s="20">
-        <v>0</v>
-      </c>
-      <c r="J73" s="20" t="s">
+      <c r="G75" s="20">
+        <v>0</v>
+      </c>
+      <c r="H75" s="20">
+        <v>0</v>
+      </c>
+      <c r="I75" s="20">
+        <v>0</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L75" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="K73" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="L73" s="20" t="s">
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="59" t="s">
         <v>181</v>
-      </c>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9">
-        <v>72</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" s="20">
-        <v>0</v>
-      </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="20">
-        <v>0</v>
-      </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L74" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="40">
-        <v>0</v>
-      </c>
-      <c r="R74" s="40">
-        <v>0</v>
-      </c>
-      <c r="S74" s="40">
-        <v>0</v>
-      </c>
-      <c r="T74" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="U74" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="9">
-        <v>73</v>
-      </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" s="20">
-        <v>0</v>
-      </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="20">
-        <v>0</v>
-      </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="40">
-        <v>0</v>
-      </c>
-      <c r="R75" s="40">
-        <v>0</v>
-      </c>
-      <c r="S75" s="40">
-        <v>0</v>
-      </c>
-      <c r="T75" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="U75" s="33" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="28"/>
-      <c r="D76" s="32" t="s">
-        <v>153</v>
+      <c r="D76" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F76" s="20">
         <v>0</v>
@@ -6219,13 +6279,13 @@
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="L76" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
@@ -6246,19 +6306,19 @@
         <v>150</v>
       </c>
       <c r="U76" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="28"/>
-      <c r="D77" s="64" t="s">
-        <v>155</v>
+      <c r="D77" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F77" s="20">
         <v>0</v>
@@ -6269,13 +6329,13 @@
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K77" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="L77" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
@@ -6295,18 +6355,20 @@
       <c r="T77" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U77" s="67" t="s">
-        <v>167</v>
+      <c r="U77" s="33" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="28"/>
-      <c r="D78" s="64"/>
+      <c r="D78" s="32" t="s">
+        <v>152</v>
+      </c>
       <c r="E78" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F78" s="20">
         <v>0</v>
@@ -6317,13 +6379,13 @@
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K78" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K78" s="19" t="s">
+      <c r="L78" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
@@ -6341,18 +6403,22 @@
         <v>0</v>
       </c>
       <c r="T78" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="U78" s="67"/>
+        <v>149</v>
+      </c>
+      <c r="U78" s="33" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="79" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="28"/>
-      <c r="D79" s="64"/>
+      <c r="D79" s="70" t="s">
+        <v>154</v>
+      </c>
       <c r="E79" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F79" s="20">
         <v>0</v>
@@ -6363,13 +6429,13 @@
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K79" s="19" t="s">
+      <c r="L79" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L79" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
@@ -6387,18 +6453,20 @@
         <v>0</v>
       </c>
       <c r="T79" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="U79" s="67"/>
+        <v>149</v>
+      </c>
+      <c r="U79" s="78" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="80" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80" s="28"/>
-      <c r="D80" s="64"/>
+      <c r="D80" s="70"/>
       <c r="E80" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F80" s="20">
         <v>0</v>
@@ -6409,13 +6477,13 @@
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K80" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K80" s="19" t="s">
+      <c r="L80" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L80" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
@@ -6433,18 +6501,18 @@
         <v>0</v>
       </c>
       <c r="T80" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="U80" s="67"/>
+        <v>149</v>
+      </c>
+      <c r="U80" s="78"/>
     </row>
     <row r="81" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" s="28"/>
-      <c r="D81" s="64"/>
+      <c r="D81" s="70"/>
       <c r="E81" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F81" s="20">
         <v>0</v>
@@ -6455,13 +6523,13 @@
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K81" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K81" s="19" t="s">
+      <c r="L81" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L81" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
@@ -6479,20 +6547,18 @@
         <v>0</v>
       </c>
       <c r="T81" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="U81" s="67"/>
+        <v>149</v>
+      </c>
+      <c r="U81" s="78"/>
     </row>
     <row r="82" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82" s="28"/>
-      <c r="D82" s="32" t="s">
-        <v>156</v>
-      </c>
+      <c r="D82" s="70"/>
       <c r="E82" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F82" s="20">
         <v>0</v>
@@ -6503,13 +6569,13 @@
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K82" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K82" s="19" t="s">
+      <c r="L82" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
@@ -6527,22 +6593,18 @@
         <v>0</v>
       </c>
       <c r="T82" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="U82" s="33" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="U82" s="78"/>
     </row>
     <row r="83" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83" s="28"/>
-      <c r="D83" s="32" t="s">
-        <v>154</v>
-      </c>
+      <c r="D83" s="70"/>
       <c r="E83" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F83" s="20">
         <v>0</v>
@@ -6553,13 +6615,13 @@
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K83" s="19" t="s">
+      <c r="L83" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
@@ -6577,22 +6639,20 @@
         <v>0</v>
       </c>
       <c r="T83" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="U83" s="33" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="U83" s="78"/>
     </row>
     <row r="84" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F84" s="20">
         <v>0</v>
@@ -6603,13 +6663,13 @@
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K84" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K84" s="19" t="s">
+      <c r="L84" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
@@ -6627,153 +6687,253 @@
         <v>0</v>
       </c>
       <c r="T84" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U84" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="9">
+        <v>81</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F85" s="20">
+        <v>0</v>
+      </c>
+      <c r="G85" s="29"/>
+      <c r="H85" s="20">
+        <v>0</v>
+      </c>
+      <c r="I85" s="29"/>
+      <c r="J85" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L85" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="40">
+        <v>0</v>
+      </c>
+      <c r="R85" s="40">
+        <v>0</v>
+      </c>
+      <c r="S85" s="40">
+        <v>0</v>
+      </c>
+      <c r="T85" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="U85" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="9">
+        <v>82</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="20">
+        <v>0</v>
+      </c>
+      <c r="G86" s="29"/>
+      <c r="H86" s="20">
+        <v>0</v>
+      </c>
+      <c r="I86" s="29"/>
+      <c r="J86" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="40">
+        <v>0</v>
+      </c>
+      <c r="R86" s="40">
+        <v>0</v>
+      </c>
+      <c r="S86" s="40">
+        <v>0</v>
+      </c>
+      <c r="T86" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="U86" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="37">
+        <v>83</v>
+      </c>
+      <c r="C87" s="38"/>
+      <c r="D87" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="42">
+        <v>0</v>
+      </c>
+      <c r="G87" s="43"/>
+      <c r="H87" s="42">
+        <v>0</v>
+      </c>
+      <c r="I87" s="43"/>
+      <c r="J87" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="K87" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="L87" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="47">
+        <v>0</v>
+      </c>
+      <c r="R87" s="47">
+        <v>0</v>
+      </c>
+      <c r="S87" s="47">
+        <v>0</v>
+      </c>
+      <c r="T87" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="U87" s="46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="37">
-        <v>83</v>
-      </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" s="42">
-        <v>0</v>
-      </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="42">
-        <v>0</v>
-      </c>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="K85" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="L85" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="47">
-        <v>0</v>
-      </c>
-      <c r="R85" s="47">
-        <v>0</v>
-      </c>
-      <c r="S85" s="47">
-        <v>0</v>
-      </c>
-      <c r="T85" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="U85" s="46" t="s">
+    <row r="88" spans="2:21" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="37">
+        <v>84</v>
+      </c>
+      <c r="C88" s="48"/>
+      <c r="D88" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="42" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="37">
-        <v>84</v>
-      </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="41" t="s">
+      <c r="F88" s="42">
+        <v>0.76</v>
+      </c>
+      <c r="G88" s="49"/>
+      <c r="H88" s="42">
+        <v>0</v>
+      </c>
+      <c r="I88" s="49"/>
+      <c r="J88" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="K88" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="L88" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="51">
+        <v>85</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="42">
-        <v>0.76</v>
-      </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="42">
-        <v>0</v>
-      </c>
-      <c r="I86" s="49"/>
-      <c r="J86" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="K86" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="L86" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="50" t="s">
+      <c r="E89" s="54" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="2:21" s="17" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="51">
-        <v>85</v>
-      </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="E87" s="54" t="s">
+      <c r="F89" s="54">
+        <v>0</v>
+      </c>
+      <c r="G89" s="55"/>
+      <c r="H89" s="54">
+        <v>0</v>
+      </c>
+      <c r="I89" s="55"/>
+      <c r="J89" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="F87" s="54">
-        <v>0</v>
-      </c>
-      <c r="G87" s="55"/>
-      <c r="H87" s="54">
-        <v>0</v>
-      </c>
-      <c r="I87" s="55"/>
-      <c r="J87" s="56" t="s">
+      <c r="K89" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="K87" s="56" t="s">
+      <c r="L89" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="L87" s="56" t="s">
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="55"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="55"/>
+      <c r="S89" s="55"/>
+      <c r="T89" s="55"/>
+      <c r="U89" s="57" t="s">
         <v>176</v>
-      </c>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-      <c r="U87" s="57" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U40:U48"/>
-    <mergeCell ref="U50:U59"/>
-    <mergeCell ref="U60:U69"/>
-    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="U42:U50"/>
+    <mergeCell ref="U52:U61"/>
+    <mergeCell ref="U62:U71"/>
+    <mergeCell ref="U79:U83"/>
     <mergeCell ref="U13:U23"/>
     <mergeCell ref="U25:U29"/>
-    <mergeCell ref="U30:U33"/>
-    <mergeCell ref="U34:U35"/>
     <mergeCell ref="U36:U37"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U30:U35"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="U6:U7"/>
@@ -6788,19 +6948,19 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D52:D61"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="D40:D48"/>
-    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="D42:D50"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="D30:D35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
